--- a/Analysis/evaluated_responses_analysis.xlsx
+++ b/Analysis/evaluated_responses_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxblumenfeld/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxblumenfeld/Documents/Software Projects/5930 LLMS/5930Final/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175B8C9D-4554-9142-B544-252A82C8BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E568A149-C581-714A-B94A-71B0D811B9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="35280" windowHeight="28620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="35280" windowHeight="28620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1019">
   <si>
     <t>Trial Number</t>
   </si>
@@ -8145,12 +8145,6 @@
   </si>
   <si>
     <t>text_generation AVG</t>
-  </si>
-  <si>
-    <t>question_answering STDEV</t>
-  </si>
-  <si>
-    <t>text_generation STDEV</t>
   </si>
   <si>
     <t>Both STDEV</t>
@@ -8542,7 +8536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
@@ -8620,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <f>SUM(E2:G2)</f>
+        <f t="shared" ref="H2:H65" si="0">SUM(E2:G2)</f>
         <v>7</v>
       </c>
       <c r="I2" t="s">
@@ -8636,7 +8630,7 @@
         <v>3</v>
       </c>
       <c r="M2">
-        <f>SUM(J2:L2)</f>
+        <f t="shared" ref="M2:M65" si="1">SUM(J2:L2)</f>
         <v>8</v>
       </c>
       <c r="N2" t="s">
@@ -8666,7 +8660,7 @@
         <v>3</v>
       </c>
       <c r="H3">
-        <f>SUM(E3:G3)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I3" t="s">
@@ -8682,7 +8676,7 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <f>SUM(J3:L3)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N3" t="s">
@@ -8712,7 +8706,7 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <f>SUM(E4:G4)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I4" t="s">
@@ -8728,7 +8722,7 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <f>SUM(J4:L4)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N4" t="s">
@@ -8758,7 +8752,7 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <f>SUM(E5:G5)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I5" t="s">
@@ -8774,7 +8768,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <f>SUM(J5:L5)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="N5" t="s">
@@ -8804,7 +8798,7 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <f>SUM(E6:G6)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I6" t="s">
@@ -8820,7 +8814,7 @@
         <v>3</v>
       </c>
       <c r="M6">
-        <f>SUM(J6:L6)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N6" t="s">
@@ -8850,7 +8844,7 @@
         <v>3</v>
       </c>
       <c r="H7">
-        <f>SUM(E7:G7)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I7" t="s">
@@ -8866,7 +8860,7 @@
         <v>2</v>
       </c>
       <c r="M7">
-        <f>SUM(J7:L7)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N7" t="s">
@@ -8896,7 +8890,7 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <f>SUM(E8:G8)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I8" t="s">
@@ -8912,7 +8906,7 @@
         <v>3</v>
       </c>
       <c r="M8">
-        <f>SUM(J8:L8)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N8" t="s">
@@ -8942,7 +8936,7 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <f>SUM(E9:G9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I9" t="s">
@@ -8958,7 +8952,7 @@
         <v>2</v>
       </c>
       <c r="M9">
-        <f>SUM(J9:L9)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N9" t="s">
@@ -8988,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <f>SUM(E10:G10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I10" t="s">
@@ -9004,7 +8998,7 @@
         <v>3</v>
       </c>
       <c r="M10">
-        <f>SUM(J10:L10)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N10" t="s">
@@ -9034,7 +9028,7 @@
         <v>3</v>
       </c>
       <c r="H11">
-        <f>SUM(E11:G11)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I11" t="s">
@@ -9050,7 +9044,7 @@
         <v>3</v>
       </c>
       <c r="M11">
-        <f>SUM(J11:L11)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N11" t="s">
@@ -9080,7 +9074,7 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <f>SUM(E12:G12)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I12" t="s">
@@ -9096,7 +9090,7 @@
         <v>3</v>
       </c>
       <c r="M12">
-        <f>SUM(J12:L12)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N12" t="s">
@@ -9126,7 +9120,7 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <f>SUM(E13:G13)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I13" t="s">
@@ -9142,7 +9136,7 @@
         <v>3</v>
       </c>
       <c r="M13">
-        <f>SUM(J13:L13)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N13" t="s">
@@ -9172,7 +9166,7 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <f>SUM(E14:G14)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I14" t="s">
@@ -9188,7 +9182,7 @@
         <v>3</v>
       </c>
       <c r="M14">
-        <f>SUM(J14:L14)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N14" t="s">
@@ -9218,7 +9212,7 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <f>SUM(E15:G15)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I15" t="s">
@@ -9234,7 +9228,7 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <f>SUM(J15:L15)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N15" t="s">
@@ -9264,7 +9258,7 @@
         <v>3</v>
       </c>
       <c r="H16">
-        <f>SUM(E16:G16)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I16" t="s">
@@ -9280,7 +9274,7 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <f>SUM(J16:L16)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N16" t="s">
@@ -9310,7 +9304,7 @@
         <v>3</v>
       </c>
       <c r="H17">
-        <f>SUM(E17:G17)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I17" t="s">
@@ -9326,7 +9320,7 @@
         <v>2</v>
       </c>
       <c r="M17">
-        <f>SUM(J17:L17)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N17" t="s">
@@ -9356,7 +9350,7 @@
         <v>3</v>
       </c>
       <c r="H18">
-        <f>SUM(E18:G18)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I18" t="s">
@@ -9372,7 +9366,7 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <f>SUM(J18:L18)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N18" t="s">
@@ -9402,7 +9396,7 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <f>SUM(E19:G19)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I19" t="s">
@@ -9418,7 +9412,7 @@
         <v>3</v>
       </c>
       <c r="M19">
-        <f>SUM(J19:L19)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N19" t="s">
@@ -9448,7 +9442,7 @@
         <v>3</v>
       </c>
       <c r="H20">
-        <f>SUM(E20:G20)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I20" t="s">
@@ -9464,7 +9458,7 @@
         <v>3</v>
       </c>
       <c r="M20">
-        <f>SUM(J20:L20)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N20" t="s">
@@ -9494,7 +9488,7 @@
         <v>3</v>
       </c>
       <c r="H21">
-        <f>SUM(E21:G21)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I21" t="s">
@@ -9510,7 +9504,7 @@
         <v>2</v>
       </c>
       <c r="M21">
-        <f>SUM(J21:L21)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N21" t="s">
@@ -9540,7 +9534,7 @@
         <v>3</v>
       </c>
       <c r="H22">
-        <f>SUM(E22:G22)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I22" t="s">
@@ -9556,7 +9550,7 @@
         <v>3</v>
       </c>
       <c r="M22">
-        <f>SUM(J22:L22)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="N22" t="s">
@@ -9586,7 +9580,7 @@
         <v>3</v>
       </c>
       <c r="H23">
-        <f>SUM(E23:G23)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I23" t="s">
@@ -9602,7 +9596,7 @@
         <v>3</v>
       </c>
       <c r="M23">
-        <f>SUM(J23:L23)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N23" t="s">
@@ -9632,7 +9626,7 @@
         <v>3</v>
       </c>
       <c r="H24">
-        <f>SUM(E24:G24)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I24" t="s">
@@ -9648,7 +9642,7 @@
         <v>3</v>
       </c>
       <c r="M24">
-        <f>SUM(J24:L24)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="N24" t="s">
@@ -9678,7 +9672,7 @@
         <v>3</v>
       </c>
       <c r="H25">
-        <f>SUM(E25:G25)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I25" t="s">
@@ -9694,7 +9688,7 @@
         <v>3</v>
       </c>
       <c r="M25">
-        <f>SUM(J25:L25)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N25" t="s">
@@ -9724,7 +9718,7 @@
         <v>3</v>
       </c>
       <c r="H26">
-        <f>SUM(E26:G26)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I26" t="s">
@@ -9740,7 +9734,7 @@
         <v>3</v>
       </c>
       <c r="M26">
-        <f>SUM(J26:L26)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="N26" t="s">
@@ -9770,7 +9764,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <f>SUM(E27:G27)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I27" t="s">
@@ -9786,7 +9780,7 @@
         <v>2</v>
       </c>
       <c r="M27">
-        <f>SUM(J27:L27)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N27" t="s">
@@ -9816,7 +9810,7 @@
         <v>3</v>
       </c>
       <c r="H28">
-        <f>SUM(E28:G28)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I28" t="s">
@@ -9832,7 +9826,7 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <f>SUM(J28:L28)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N28" t="s">
@@ -9862,7 +9856,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <f>SUM(E29:G29)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I29" t="s">
@@ -9878,7 +9872,7 @@
         <v>3</v>
       </c>
       <c r="M29">
-        <f>SUM(J29:L29)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N29" t="s">
@@ -9908,7 +9902,7 @@
         <v>3</v>
       </c>
       <c r="H30">
-        <f>SUM(E30:G30)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I30" t="s">
@@ -9924,7 +9918,7 @@
         <v>2</v>
       </c>
       <c r="M30">
-        <f>SUM(J30:L30)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N30" t="s">
@@ -9954,7 +9948,7 @@
         <v>3</v>
       </c>
       <c r="H31">
-        <f>SUM(E31:G31)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I31" t="s">
@@ -9970,7 +9964,7 @@
         <v>3</v>
       </c>
       <c r="M31">
-        <f>SUM(J31:L31)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N31" t="s">
@@ -10000,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <f>SUM(E32:G32)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I32" t="s">
@@ -10016,7 +10010,7 @@
         <v>3</v>
       </c>
       <c r="M32">
-        <f>SUM(J32:L32)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N32" t="s">
@@ -10046,7 +10040,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <f>SUM(E33:G33)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I33" t="s">
@@ -10062,7 +10056,7 @@
         <v>3</v>
       </c>
       <c r="M33">
-        <f>SUM(J33:L33)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N33" t="s">
@@ -10092,7 +10086,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <f>SUM(E34:G34)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I34" t="s">
@@ -10108,7 +10102,7 @@
         <v>3</v>
       </c>
       <c r="M34">
-        <f>SUM(J34:L34)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N34" t="s">
@@ -10138,7 +10132,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <f>SUM(E35:G35)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I35" t="s">
@@ -10154,7 +10148,7 @@
         <v>2</v>
       </c>
       <c r="M35">
-        <f>SUM(J35:L35)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N35" t="s">
@@ -10184,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <f>SUM(E36:G36)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I36" t="s">
@@ -10200,7 +10194,7 @@
         <v>3</v>
       </c>
       <c r="M36">
-        <f>SUM(J36:L36)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N36" t="s">
@@ -10230,7 +10224,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <f>SUM(E37:G37)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I37" t="s">
@@ -10246,7 +10240,7 @@
         <v>3</v>
       </c>
       <c r="M37">
-        <f>SUM(J37:L37)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N37" t="s">
@@ -10276,7 +10270,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <f>SUM(E38:G38)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I38" t="s">
@@ -10292,7 +10286,7 @@
         <v>3</v>
       </c>
       <c r="M38">
-        <f>SUM(J38:L38)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N38" t="s">
@@ -10322,7 +10316,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <f>SUM(E39:G39)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I39" t="s">
@@ -10338,7 +10332,7 @@
         <v>3</v>
       </c>
       <c r="M39">
-        <f>SUM(J39:L39)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N39" t="s">
@@ -10368,7 +10362,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <f>SUM(E40:G40)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I40" t="s">
@@ -10384,7 +10378,7 @@
         <v>3</v>
       </c>
       <c r="M40">
-        <f>SUM(J40:L40)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N40" t="s">
@@ -10414,7 +10408,7 @@
         <v>3</v>
       </c>
       <c r="H41">
-        <f>SUM(E41:G41)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I41" t="s">
@@ -10430,7 +10424,7 @@
         <v>3</v>
       </c>
       <c r="M41">
-        <f>SUM(J41:L41)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N41" t="s">
@@ -10460,7 +10454,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <f>SUM(E42:G42)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I42" t="s">
@@ -10476,7 +10470,7 @@
         <v>2</v>
       </c>
       <c r="M42">
-        <f>SUM(J42:L42)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N42" t="s">
@@ -10506,7 +10500,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <f>SUM(E43:G43)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I43" t="s">
@@ -10522,7 +10516,7 @@
         <v>3</v>
       </c>
       <c r="M43">
-        <f>SUM(J43:L43)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N43" t="s">
@@ -10552,7 +10546,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <f>SUM(E44:G44)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I44" t="s">
@@ -10568,7 +10562,7 @@
         <v>3</v>
       </c>
       <c r="M44">
-        <f>SUM(J44:L44)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N44" t="s">
@@ -10598,7 +10592,7 @@
         <v>3</v>
       </c>
       <c r="H45">
-        <f>SUM(E45:G45)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I45" t="s">
@@ -10614,7 +10608,7 @@
         <v>3</v>
       </c>
       <c r="M45">
-        <f>SUM(J45:L45)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N45" t="s">
@@ -10644,7 +10638,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <f>SUM(E46:G46)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I46" t="s">
@@ -10660,7 +10654,7 @@
         <v>3</v>
       </c>
       <c r="M46">
-        <f>SUM(J46:L46)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N46" t="s">
@@ -10690,7 +10684,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <f>SUM(E47:G47)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I47" t="s">
@@ -10706,7 +10700,7 @@
         <v>3</v>
       </c>
       <c r="M47">
-        <f>SUM(J47:L47)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N47" t="s">
@@ -10736,7 +10730,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <f>SUM(E48:G48)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I48" t="s">
@@ -10752,7 +10746,7 @@
         <v>3</v>
       </c>
       <c r="M48">
-        <f>SUM(J48:L48)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N48" t="s">
@@ -10782,7 +10776,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <f>SUM(E49:G49)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I49" t="s">
@@ -10798,7 +10792,7 @@
         <v>3</v>
       </c>
       <c r="M49">
-        <f>SUM(J49:L49)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N49" t="s">
@@ -10828,7 +10822,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <f>SUM(E50:G50)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I50" t="s">
@@ -10844,7 +10838,7 @@
         <v>3</v>
       </c>
       <c r="M50">
-        <f>SUM(J50:L50)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N50" t="s">
@@ -10874,7 +10868,7 @@
         <v>3</v>
       </c>
       <c r="H51">
-        <f>SUM(E51:G51)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I51" t="s">
@@ -10890,7 +10884,7 @@
         <v>3</v>
       </c>
       <c r="M51">
-        <f>SUM(J51:L51)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N51" t="s">
@@ -10920,7 +10914,7 @@
         <v>3</v>
       </c>
       <c r="H52">
-        <f>SUM(E52:G52)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I52" t="s">
@@ -10936,7 +10930,7 @@
         <v>3</v>
       </c>
       <c r="M52">
-        <f>SUM(J52:L52)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N52" t="s">
@@ -10966,7 +10960,7 @@
         <v>3</v>
       </c>
       <c r="H53">
-        <f>SUM(E53:G53)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I53" t="s">
@@ -10982,7 +10976,7 @@
         <v>2</v>
       </c>
       <c r="M53">
-        <f>SUM(J53:L53)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N53" t="s">
@@ -11012,7 +11006,7 @@
         <v>3</v>
       </c>
       <c r="H54">
-        <f>SUM(E54:G54)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I54" t="s">
@@ -11028,7 +11022,7 @@
         <v>3</v>
       </c>
       <c r="M54">
-        <f>SUM(J54:L54)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N54" t="s">
@@ -11058,7 +11052,7 @@
         <v>3</v>
       </c>
       <c r="H55">
-        <f>SUM(E55:G55)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I55" t="s">
@@ -11074,7 +11068,7 @@
         <v>3</v>
       </c>
       <c r="M55">
-        <f>SUM(J55:L55)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N55" t="s">
@@ -11104,7 +11098,7 @@
         <v>3</v>
       </c>
       <c r="H56">
-        <f>SUM(E56:G56)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I56" t="s">
@@ -11120,7 +11114,7 @@
         <v>3</v>
       </c>
       <c r="M56">
-        <f>SUM(J56:L56)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N56" t="s">
@@ -11150,7 +11144,7 @@
         <v>3</v>
       </c>
       <c r="H57">
-        <f>SUM(E57:G57)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I57" t="s">
@@ -11166,7 +11160,7 @@
         <v>3</v>
       </c>
       <c r="M57">
-        <f>SUM(J57:L57)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N57" t="s">
@@ -11196,7 +11190,7 @@
         <v>3</v>
       </c>
       <c r="H58">
-        <f>SUM(E58:G58)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I58" t="s">
@@ -11212,7 +11206,7 @@
         <v>3</v>
       </c>
       <c r="M58">
-        <f>SUM(J58:L58)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N58" t="s">
@@ -11242,7 +11236,7 @@
         <v>3</v>
       </c>
       <c r="H59">
-        <f>SUM(E59:G59)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I59" t="s">
@@ -11258,7 +11252,7 @@
         <v>3</v>
       </c>
       <c r="M59">
-        <f>SUM(J59:L59)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N59" t="s">
@@ -11288,7 +11282,7 @@
         <v>3</v>
       </c>
       <c r="H60">
-        <f>SUM(E60:G60)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I60" t="s">
@@ -11304,7 +11298,7 @@
         <v>3</v>
       </c>
       <c r="M60">
-        <f>SUM(J60:L60)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N60" t="s">
@@ -11334,7 +11328,7 @@
         <v>3</v>
       </c>
       <c r="H61">
-        <f>SUM(E61:G61)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I61" t="s">
@@ -11350,7 +11344,7 @@
         <v>3</v>
       </c>
       <c r="M61">
-        <f>SUM(J61:L61)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N61" t="s">
@@ -11380,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <f>SUM(E62:G62)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I62" t="s">
@@ -11396,7 +11390,7 @@
         <v>3</v>
       </c>
       <c r="M62">
-        <f>SUM(J62:L62)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="N62" t="s">
@@ -11426,7 +11420,7 @@
         <v>3</v>
       </c>
       <c r="H63">
-        <f>SUM(E63:G63)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I63" t="s">
@@ -11442,7 +11436,7 @@
         <v>3</v>
       </c>
       <c r="M63">
-        <f>SUM(J63:L63)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N63" t="s">
@@ -11472,7 +11466,7 @@
         <v>3</v>
       </c>
       <c r="H64">
-        <f>SUM(E64:G64)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I64" t="s">
@@ -11488,7 +11482,7 @@
         <v>2</v>
       </c>
       <c r="M64">
-        <f>SUM(J64:L64)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N64" t="s">
@@ -11518,7 +11512,7 @@
         <v>3</v>
       </c>
       <c r="H65">
-        <f>SUM(E65:G65)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I65" t="s">
@@ -11534,7 +11528,7 @@
         <v>3</v>
       </c>
       <c r="M65">
-        <f>SUM(J65:L65)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N65" t="s">
@@ -11564,7 +11558,7 @@
         <v>3</v>
       </c>
       <c r="H66">
-        <f>SUM(E66:G66)</f>
+        <f t="shared" ref="H66:H129" si="2">SUM(E66:G66)</f>
         <v>7</v>
       </c>
       <c r="I66" t="s">
@@ -11580,7 +11574,7 @@
         <v>3</v>
       </c>
       <c r="M66">
-        <f>SUM(J66:L66)</f>
+        <f t="shared" ref="M66:M129" si="3">SUM(J66:L66)</f>
         <v>8</v>
       </c>
       <c r="N66" t="s">
@@ -11610,7 +11604,7 @@
         <v>3</v>
       </c>
       <c r="H67">
-        <f>SUM(E67:G67)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I67" t="s">
@@ -11626,7 +11620,7 @@
         <v>3</v>
       </c>
       <c r="M67">
-        <f>SUM(J67:L67)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N67" t="s">
@@ -11656,7 +11650,7 @@
         <v>3</v>
       </c>
       <c r="H68">
-        <f>SUM(E68:G68)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I68" t="s">
@@ -11672,7 +11666,7 @@
         <v>1</v>
       </c>
       <c r="M68">
-        <f>SUM(J68:L68)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="N68" t="s">
@@ -11702,7 +11696,7 @@
         <v>3</v>
       </c>
       <c r="H69">
-        <f>SUM(E69:G69)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I69" t="s">
@@ -11718,7 +11712,7 @@
         <v>3</v>
       </c>
       <c r="M69">
-        <f>SUM(J69:L69)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N69" t="s">
@@ -11748,7 +11742,7 @@
         <v>3</v>
       </c>
       <c r="H70">
-        <f>SUM(E70:G70)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I70" t="s">
@@ -11764,7 +11758,7 @@
         <v>3</v>
       </c>
       <c r="M70">
-        <f>SUM(J70:L70)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N70" t="s">
@@ -11794,7 +11788,7 @@
         <v>3</v>
       </c>
       <c r="H71">
-        <f>SUM(E71:G71)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I71" t="s">
@@ -11810,7 +11804,7 @@
         <v>2</v>
       </c>
       <c r="M71">
-        <f>SUM(J71:L71)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N71" t="s">
@@ -11840,7 +11834,7 @@
         <v>3</v>
       </c>
       <c r="H72">
-        <f>SUM(E72:G72)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I72" t="s">
@@ -11856,7 +11850,7 @@
         <v>2</v>
       </c>
       <c r="M72">
-        <f>SUM(J72:L72)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="N72" t="s">
@@ -11886,7 +11880,7 @@
         <v>3</v>
       </c>
       <c r="H73">
-        <f>SUM(E73:G73)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I73" t="s">
@@ -11902,7 +11896,7 @@
         <v>3</v>
       </c>
       <c r="M73">
-        <f>SUM(J73:L73)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N73" t="s">
@@ -11932,7 +11926,7 @@
         <v>3</v>
       </c>
       <c r="H74">
-        <f>SUM(E74:G74)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I74" t="s">
@@ -11948,7 +11942,7 @@
         <v>3</v>
       </c>
       <c r="M74">
-        <f>SUM(J74:L74)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N74" t="s">
@@ -11978,7 +11972,7 @@
         <v>3</v>
       </c>
       <c r="H75">
-        <f>SUM(E75:G75)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I75" t="s">
@@ -11994,7 +11988,7 @@
         <v>3</v>
       </c>
       <c r="M75">
-        <f>SUM(J75:L75)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N75" t="s">
@@ -12024,7 +12018,7 @@
         <v>3</v>
       </c>
       <c r="H76">
-        <f>SUM(E76:G76)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I76" t="s">
@@ -12040,7 +12034,7 @@
         <v>3</v>
       </c>
       <c r="M76">
-        <f>SUM(J76:L76)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N76" t="s">
@@ -12070,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <f>SUM(E77:G77)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I77" t="s">
@@ -12086,7 +12080,7 @@
         <v>2</v>
       </c>
       <c r="M77">
-        <f>SUM(J77:L77)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N77" t="s">
@@ -12116,7 +12110,7 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <f>SUM(E78:G78)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I78" t="s">
@@ -12132,7 +12126,7 @@
         <v>2</v>
       </c>
       <c r="M78">
-        <f>SUM(J78:L78)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N78" t="s">
@@ -12162,7 +12156,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <f>SUM(E79:G79)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I79" t="s">
@@ -12178,7 +12172,7 @@
         <v>3</v>
       </c>
       <c r="M79">
-        <f>SUM(J79:L79)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N79" t="s">
@@ -12208,7 +12202,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <f>SUM(E80:G80)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I80" t="s">
@@ -12224,7 +12218,7 @@
         <v>2</v>
       </c>
       <c r="M80">
-        <f>SUM(J80:L80)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="N80" t="s">
@@ -12254,7 +12248,7 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <f>SUM(E81:G81)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I81" t="s">
@@ -12270,7 +12264,7 @@
         <v>3</v>
       </c>
       <c r="M81">
-        <f>SUM(J81:L81)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N81" t="s">
@@ -12300,7 +12294,7 @@
         <v>3</v>
       </c>
       <c r="H82">
-        <f>SUM(E82:G82)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I82" t="s">
@@ -12316,7 +12310,7 @@
         <v>3</v>
       </c>
       <c r="M82">
-        <f>SUM(J82:L82)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N82" t="s">
@@ -12346,7 +12340,7 @@
         <v>3</v>
       </c>
       <c r="H83">
-        <f>SUM(E83:G83)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I83" t="s">
@@ -12362,7 +12356,7 @@
         <v>2</v>
       </c>
       <c r="M83">
-        <f>SUM(J83:L83)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="N83" t="s">
@@ -12392,7 +12386,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <f>SUM(E84:G84)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I84" t="s">
@@ -12408,7 +12402,7 @@
         <v>3</v>
       </c>
       <c r="M84">
-        <f>SUM(J84:L84)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N84" t="s">
@@ -12438,7 +12432,7 @@
         <v>3</v>
       </c>
       <c r="H85">
-        <f>SUM(E85:G85)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I85" t="s">
@@ -12454,7 +12448,7 @@
         <v>2</v>
       </c>
       <c r="M85">
-        <f>SUM(J85:L85)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N85" t="s">
@@ -12484,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <f>SUM(E86:G86)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I86" t="s">
@@ -12500,7 +12494,7 @@
         <v>3</v>
       </c>
       <c r="M86">
-        <f>SUM(J86:L86)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N86" t="s">
@@ -12530,7 +12524,7 @@
         <v>3</v>
       </c>
       <c r="H87">
-        <f>SUM(E87:G87)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I87" t="s">
@@ -12546,7 +12540,7 @@
         <v>3</v>
       </c>
       <c r="M87">
-        <f>SUM(J87:L87)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N87" t="s">
@@ -12576,7 +12570,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <f>SUM(E88:G88)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I88" t="s">
@@ -12592,7 +12586,7 @@
         <v>3</v>
       </c>
       <c r="M88">
-        <f>SUM(J88:L88)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N88" t="s">
@@ -12622,7 +12616,7 @@
         <v>3</v>
       </c>
       <c r="H89">
-        <f>SUM(E89:G89)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I89" t="s">
@@ -12638,7 +12632,7 @@
         <v>3</v>
       </c>
       <c r="M89">
-        <f>SUM(J89:L89)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N89" t="s">
@@ -12668,7 +12662,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <f>SUM(E90:G90)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I90" t="s">
@@ -12684,7 +12678,7 @@
         <v>3</v>
       </c>
       <c r="M90">
-        <f>SUM(J90:L90)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N90" t="s">
@@ -12714,7 +12708,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <f>SUM(E91:G91)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I91" t="s">
@@ -12730,7 +12724,7 @@
         <v>3</v>
       </c>
       <c r="M91">
-        <f>SUM(J91:L91)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N91" t="s">
@@ -12760,7 +12754,7 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <f>SUM(E92:G92)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I92" t="s">
@@ -12776,7 +12770,7 @@
         <v>3</v>
       </c>
       <c r="M92">
-        <f>SUM(J92:L92)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N92" t="s">
@@ -12806,7 +12800,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <f>SUM(E93:G93)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I93" t="s">
@@ -12822,7 +12816,7 @@
         <v>3</v>
       </c>
       <c r="M93">
-        <f>SUM(J93:L93)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N93" t="s">
@@ -12852,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <f>SUM(E94:G94)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I94" t="s">
@@ -12868,7 +12862,7 @@
         <v>3</v>
       </c>
       <c r="M94">
-        <f>SUM(J94:L94)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N94" t="s">
@@ -12898,7 +12892,7 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <f>SUM(E95:G95)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I95" t="s">
@@ -12914,7 +12908,7 @@
         <v>3</v>
       </c>
       <c r="M95">
-        <f>SUM(J95:L95)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N95" t="s">
@@ -12944,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <f>SUM(E96:G96)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I96" t="s">
@@ -12960,7 +12954,7 @@
         <v>3</v>
       </c>
       <c r="M96">
-        <f>SUM(J96:L96)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N96" t="s">
@@ -12990,7 +12984,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <f>SUM(E97:G97)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I97" t="s">
@@ -13006,7 +13000,7 @@
         <v>2</v>
       </c>
       <c r="M97">
-        <f>SUM(J97:L97)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="N97" t="s">
@@ -13036,7 +13030,7 @@
         <v>3</v>
       </c>
       <c r="H98">
-        <f>SUM(E98:G98)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I98" t="s">
@@ -13052,7 +13046,7 @@
         <v>3</v>
       </c>
       <c r="M98">
-        <f>SUM(J98:L98)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N98" t="s">
@@ -13082,7 +13076,7 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <f>SUM(E99:G99)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I99" t="s">
@@ -13098,7 +13092,7 @@
         <v>3</v>
       </c>
       <c r="M99">
-        <f>SUM(J99:L99)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N99" t="s">
@@ -13128,7 +13122,7 @@
         <v>3</v>
       </c>
       <c r="H100">
-        <f>SUM(E100:G100)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I100" t="s">
@@ -13144,7 +13138,7 @@
         <v>3</v>
       </c>
       <c r="M100">
-        <f>SUM(J100:L100)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N100" t="s">
@@ -13174,7 +13168,7 @@
         <v>3</v>
       </c>
       <c r="H101">
-        <f>SUM(E101:G101)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I101" t="s">
@@ -13190,7 +13184,7 @@
         <v>3</v>
       </c>
       <c r="M101">
-        <f>SUM(J101:L101)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N101" t="s">
@@ -13220,7 +13214,7 @@
         <v>3</v>
       </c>
       <c r="H102">
-        <f>SUM(E102:G102)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I102" t="s">
@@ -13236,7 +13230,7 @@
         <v>3</v>
       </c>
       <c r="M102">
-        <f>SUM(J102:L102)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N102" t="s">
@@ -13266,7 +13260,7 @@
         <v>3</v>
       </c>
       <c r="H103">
-        <f>SUM(E103:G103)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I103" t="s">
@@ -13282,7 +13276,7 @@
         <v>2</v>
       </c>
       <c r="M103">
-        <f>SUM(J103:L103)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="N103" t="s">
@@ -13312,7 +13306,7 @@
         <v>3</v>
       </c>
       <c r="H104">
-        <f>SUM(E104:G104)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I104" t="s">
@@ -13328,7 +13322,7 @@
         <v>3</v>
       </c>
       <c r="M104">
-        <f>SUM(J104:L104)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N104" t="s">
@@ -13358,7 +13352,7 @@
         <v>3</v>
       </c>
       <c r="H105">
-        <f>SUM(E105:G105)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I105" t="s">
@@ -13374,7 +13368,7 @@
         <v>3</v>
       </c>
       <c r="M105">
-        <f>SUM(J105:L105)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N105" t="s">
@@ -13404,7 +13398,7 @@
         <v>3</v>
       </c>
       <c r="H106">
-        <f>SUM(E106:G106)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I106" t="s">
@@ -13420,7 +13414,7 @@
         <v>3</v>
       </c>
       <c r="M106">
-        <f>SUM(J106:L106)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N106" t="s">
@@ -13450,7 +13444,7 @@
         <v>3</v>
       </c>
       <c r="H107">
-        <f>SUM(E107:G107)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I107" t="s">
@@ -13466,7 +13460,7 @@
         <v>2</v>
       </c>
       <c r="M107">
-        <f>SUM(J107:L107)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="N107" t="s">
@@ -13496,7 +13490,7 @@
         <v>3</v>
       </c>
       <c r="H108">
-        <f>SUM(E108:G108)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I108" t="s">
@@ -13512,7 +13506,7 @@
         <v>3</v>
       </c>
       <c r="M108">
-        <f>SUM(J108:L108)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N108" t="s">
@@ -13542,7 +13536,7 @@
         <v>3</v>
       </c>
       <c r="H109">
-        <f>SUM(E109:G109)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I109" t="s">
@@ -13558,7 +13552,7 @@
         <v>3</v>
       </c>
       <c r="M109">
-        <f>SUM(J109:L109)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N109" t="s">
@@ -13588,7 +13582,7 @@
         <v>3</v>
       </c>
       <c r="H110">
-        <f>SUM(E110:G110)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I110" t="s">
@@ -13604,7 +13598,7 @@
         <v>3</v>
       </c>
       <c r="M110">
-        <f>SUM(J110:L110)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N110" t="s">
@@ -13634,7 +13628,7 @@
         <v>3</v>
       </c>
       <c r="H111">
-        <f>SUM(E111:G111)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I111" t="s">
@@ -13650,7 +13644,7 @@
         <v>3</v>
       </c>
       <c r="M111">
-        <f>SUM(J111:L111)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N111" t="s">
@@ -13680,7 +13674,7 @@
         <v>3</v>
       </c>
       <c r="H112">
-        <f>SUM(E112:G112)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I112" t="s">
@@ -13696,7 +13690,7 @@
         <v>3</v>
       </c>
       <c r="M112">
-        <f>SUM(J112:L112)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N112" t="s">
@@ -13726,7 +13720,7 @@
         <v>3</v>
       </c>
       <c r="H113">
-        <f>SUM(E113:G113)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I113" t="s">
@@ -13742,7 +13736,7 @@
         <v>3</v>
       </c>
       <c r="M113">
-        <f>SUM(J113:L113)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N113" t="s">
@@ -13772,7 +13766,7 @@
         <v>3</v>
       </c>
       <c r="H114">
-        <f>SUM(E114:G114)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I114" t="s">
@@ -13788,7 +13782,7 @@
         <v>3</v>
       </c>
       <c r="M114">
-        <f>SUM(J114:L114)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N114" t="s">
@@ -13818,7 +13812,7 @@
         <v>3</v>
       </c>
       <c r="H115">
-        <f>SUM(E115:G115)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I115" t="s">
@@ -13834,7 +13828,7 @@
         <v>3</v>
       </c>
       <c r="M115">
-        <f>SUM(J115:L115)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N115" t="s">
@@ -13864,7 +13858,7 @@
         <v>3</v>
       </c>
       <c r="H116">
-        <f>SUM(E116:G116)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I116" t="s">
@@ -13880,7 +13874,7 @@
         <v>3</v>
       </c>
       <c r="M116">
-        <f>SUM(J116:L116)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N116" t="s">
@@ -13910,7 +13904,7 @@
         <v>3</v>
       </c>
       <c r="H117">
-        <f>SUM(E117:G117)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I117" t="s">
@@ -13926,7 +13920,7 @@
         <v>3</v>
       </c>
       <c r="M117">
-        <f>SUM(J117:L117)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N117" t="s">
@@ -13956,7 +13950,7 @@
         <v>3</v>
       </c>
       <c r="H118">
-        <f>SUM(E118:G118)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I118" t="s">
@@ -13972,7 +13966,7 @@
         <v>2</v>
       </c>
       <c r="M118">
-        <f>SUM(J118:L118)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N118" t="s">
@@ -14002,7 +13996,7 @@
         <v>3</v>
       </c>
       <c r="H119">
-        <f>SUM(E119:G119)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I119" t="s">
@@ -14018,7 +14012,7 @@
         <v>3</v>
       </c>
       <c r="M119">
-        <f>SUM(J119:L119)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N119" t="s">
@@ -14048,7 +14042,7 @@
         <v>3</v>
       </c>
       <c r="H120">
-        <f>SUM(E120:G120)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I120" t="s">
@@ -14064,7 +14058,7 @@
         <v>2</v>
       </c>
       <c r="M120">
-        <f>SUM(J120:L120)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N120" t="s">
@@ -14094,7 +14088,7 @@
         <v>3</v>
       </c>
       <c r="H121">
-        <f>SUM(E121:G121)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I121" t="s">
@@ -14110,7 +14104,7 @@
         <v>3</v>
       </c>
       <c r="M121">
-        <f>SUM(J121:L121)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N121" t="s">
@@ -14140,7 +14134,7 @@
         <v>3</v>
       </c>
       <c r="H122">
-        <f>SUM(E122:G122)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I122" t="s">
@@ -14156,7 +14150,7 @@
         <v>3</v>
       </c>
       <c r="M122">
-        <f>SUM(J122:L122)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N122" t="s">
@@ -14186,7 +14180,7 @@
         <v>3</v>
       </c>
       <c r="H123">
-        <f>SUM(E123:G123)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I123" t="s">
@@ -14202,7 +14196,7 @@
         <v>3</v>
       </c>
       <c r="M123">
-        <f>SUM(J123:L123)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N123" t="s">
@@ -14232,7 +14226,7 @@
         <v>3</v>
       </c>
       <c r="H124">
-        <f>SUM(E124:G124)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I124" t="s">
@@ -14248,7 +14242,7 @@
         <v>3</v>
       </c>
       <c r="M124">
-        <f>SUM(J124:L124)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N124" t="s">
@@ -14278,7 +14272,7 @@
         <v>3</v>
       </c>
       <c r="H125">
-        <f>SUM(E125:G125)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I125" t="s">
@@ -14294,7 +14288,7 @@
         <v>3</v>
       </c>
       <c r="M125">
-        <f>SUM(J125:L125)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N125" t="s">
@@ -14324,7 +14318,7 @@
         <v>3</v>
       </c>
       <c r="H126">
-        <f>SUM(E126:G126)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I126" t="s">
@@ -14340,7 +14334,7 @@
         <v>3</v>
       </c>
       <c r="M126">
-        <f>SUM(J126:L126)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="N126" t="s">
@@ -14370,7 +14364,7 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <f>SUM(E127:G127)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I127" t="s">
@@ -14386,7 +14380,7 @@
         <v>2</v>
       </c>
       <c r="M127">
-        <f>SUM(J127:L127)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N127" t="s">
@@ -14416,7 +14410,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <f>SUM(E128:G128)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I128" t="s">
@@ -14432,7 +14426,7 @@
         <v>2</v>
       </c>
       <c r="M128">
-        <f>SUM(J128:L128)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N128" t="s">
@@ -14462,7 +14456,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <f>SUM(E129:G129)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I129" t="s">
@@ -14478,7 +14472,7 @@
         <v>3</v>
       </c>
       <c r="M129">
-        <f>SUM(J129:L129)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N129" t="s">
@@ -14508,7 +14502,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <f>SUM(E130:G130)</f>
+        <f t="shared" ref="H130:H193" si="4">SUM(E130:G130)</f>
         <v>6</v>
       </c>
       <c r="I130" t="s">
@@ -14524,7 +14518,7 @@
         <v>2</v>
       </c>
       <c r="M130">
-        <f>SUM(J130:L130)</f>
+        <f t="shared" ref="M130:M193" si="5">SUM(J130:L130)</f>
         <v>5</v>
       </c>
       <c r="N130" t="s">
@@ -14554,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <f>SUM(E131:G131)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I131" t="s">
@@ -14570,7 +14564,7 @@
         <v>3</v>
       </c>
       <c r="M131">
-        <f>SUM(J131:L131)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N131" t="s">
@@ -14600,7 +14594,7 @@
         <v>3</v>
       </c>
       <c r="H132">
-        <f>SUM(E132:G132)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I132" t="s">
@@ -14616,7 +14610,7 @@
         <v>3</v>
       </c>
       <c r="M132">
-        <f>SUM(J132:L132)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N132" t="s">
@@ -14646,7 +14640,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <f>SUM(E133:G133)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I133" t="s">
@@ -14662,7 +14656,7 @@
         <v>3</v>
       </c>
       <c r="M133">
-        <f>SUM(J133:L133)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N133" t="s">
@@ -14692,7 +14686,7 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <f>SUM(E134:G134)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I134" t="s">
@@ -14708,7 +14702,7 @@
         <v>3</v>
       </c>
       <c r="M134">
-        <f>SUM(J134:L134)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N134" t="s">
@@ -14738,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <f>SUM(E135:G135)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I135" t="s">
@@ -14754,7 +14748,7 @@
         <v>2</v>
       </c>
       <c r="M135">
-        <f>SUM(J135:L135)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="N135" t="s">
@@ -14784,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <f>SUM(E136:G136)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I136" t="s">
@@ -14800,7 +14794,7 @@
         <v>3</v>
       </c>
       <c r="M136">
-        <f>SUM(J136:L136)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N136" t="s">
@@ -14830,7 +14824,7 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <f>SUM(E137:G137)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I137" t="s">
@@ -14846,7 +14840,7 @@
         <v>3</v>
       </c>
       <c r="M137">
-        <f>SUM(J137:L137)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N137" t="s">
@@ -14876,7 +14870,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <f>SUM(E138:G138)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I138" t="s">
@@ -14892,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="M138">
-        <f>SUM(J138:L138)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="N138" t="s">
@@ -14922,7 +14916,7 @@
         <v>3</v>
       </c>
       <c r="H139">
-        <f>SUM(E139:G139)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I139" t="s">
@@ -14938,7 +14932,7 @@
         <v>3</v>
       </c>
       <c r="M139">
-        <f>SUM(J139:L139)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N139" t="s">
@@ -14968,7 +14962,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <f>SUM(E140:G140)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I140" t="s">
@@ -14984,7 +14978,7 @@
         <v>3</v>
       </c>
       <c r="M140">
-        <f>SUM(J140:L140)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N140" t="s">
@@ -15014,7 +15008,7 @@
         <v>3</v>
       </c>
       <c r="H141">
-        <f>SUM(E141:G141)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I141" t="s">
@@ -15030,7 +15024,7 @@
         <v>3</v>
       </c>
       <c r="M141">
-        <f>SUM(J141:L141)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N141" t="s">
@@ -15060,7 +15054,7 @@
         <v>3</v>
       </c>
       <c r="H142">
-        <f>SUM(E142:G142)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I142" t="s">
@@ -15076,7 +15070,7 @@
         <v>3</v>
       </c>
       <c r="M142">
-        <f>SUM(J142:L142)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N142" t="s">
@@ -15106,7 +15100,7 @@
         <v>3</v>
       </c>
       <c r="H143">
-        <f>SUM(E143:G143)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I143" t="s">
@@ -15122,7 +15116,7 @@
         <v>3</v>
       </c>
       <c r="M143">
-        <f>SUM(J143:L143)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N143" t="s">
@@ -15152,7 +15146,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <f>SUM(E144:G144)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I144" t="s">
@@ -15168,7 +15162,7 @@
         <v>3</v>
       </c>
       <c r="M144">
-        <f>SUM(J144:L144)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N144" t="s">
@@ -15198,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <f>SUM(E145:G145)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I145" t="s">
@@ -15214,7 +15208,7 @@
         <v>3</v>
       </c>
       <c r="M145">
-        <f>SUM(J145:L145)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N145" t="s">
@@ -15244,7 +15238,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <f>SUM(E146:G146)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I146" t="s">
@@ -15260,7 +15254,7 @@
         <v>3</v>
       </c>
       <c r="M146">
-        <f>SUM(J146:L146)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="N146" t="s">
@@ -15290,7 +15284,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <f>SUM(E147:G147)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I147" t="s">
@@ -15306,7 +15300,7 @@
         <v>3</v>
       </c>
       <c r="M147">
-        <f>SUM(J147:L147)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N147" t="s">
@@ -15336,7 +15330,7 @@
         <v>3</v>
       </c>
       <c r="H148">
-        <f>SUM(E148:G148)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I148" t="s">
@@ -15352,7 +15346,7 @@
         <v>3</v>
       </c>
       <c r="M148">
-        <f>SUM(J148:L148)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N148" t="s">
@@ -15382,7 +15376,7 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <f>SUM(E149:G149)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I149" t="s">
@@ -15398,7 +15392,7 @@
         <v>3</v>
       </c>
       <c r="M149">
-        <f>SUM(J149:L149)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N149" t="s">
@@ -15428,7 +15422,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <f>SUM(E150:G150)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I150" t="s">
@@ -15444,7 +15438,7 @@
         <v>3</v>
       </c>
       <c r="M150">
-        <f>SUM(J150:L150)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N150" t="s">
@@ -15474,7 +15468,7 @@
         <v>3</v>
       </c>
       <c r="H151">
-        <f>SUM(E151:G151)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I151" t="s">
@@ -15490,7 +15484,7 @@
         <v>3</v>
       </c>
       <c r="M151">
-        <f>SUM(J151:L151)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N151" t="s">
@@ -15520,7 +15514,7 @@
         <v>3</v>
       </c>
       <c r="H152">
-        <f>SUM(E152:G152)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I152" t="s">
@@ -15536,7 +15530,7 @@
         <v>3</v>
       </c>
       <c r="M152">
-        <f>SUM(J152:L152)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N152" t="s">
@@ -15566,7 +15560,7 @@
         <v>3</v>
       </c>
       <c r="H153">
-        <f>SUM(E153:G153)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I153" t="s">
@@ -15582,7 +15576,7 @@
         <v>3</v>
       </c>
       <c r="M153">
-        <f>SUM(J153:L153)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="N153" t="s">
@@ -15612,7 +15606,7 @@
         <v>3</v>
       </c>
       <c r="H154">
-        <f>SUM(E154:G154)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I154" t="s">
@@ -15628,7 +15622,7 @@
         <v>3</v>
       </c>
       <c r="M154">
-        <f>SUM(J154:L154)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N154" t="s">
@@ -15658,7 +15652,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <f>SUM(E155:G155)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I155" t="s">
@@ -15674,7 +15668,7 @@
         <v>1</v>
       </c>
       <c r="M155">
-        <f>SUM(J155:L155)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="N155" t="s">
@@ -15704,7 +15698,7 @@
         <v>3</v>
       </c>
       <c r="H156">
-        <f>SUM(E156:G156)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I156" t="s">
@@ -15720,7 +15714,7 @@
         <v>3</v>
       </c>
       <c r="M156">
-        <f>SUM(J156:L156)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N156" t="s">
@@ -15750,7 +15744,7 @@
         <v>3</v>
       </c>
       <c r="H157">
-        <f>SUM(E157:G157)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I157" t="s">
@@ -15766,7 +15760,7 @@
         <v>2</v>
       </c>
       <c r="M157">
-        <f>SUM(J157:L157)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N157" t="s">
@@ -15796,7 +15790,7 @@
         <v>3</v>
       </c>
       <c r="H158">
-        <f>SUM(E158:G158)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I158" t="s">
@@ -15812,7 +15806,7 @@
         <v>3</v>
       </c>
       <c r="M158">
-        <f>SUM(J158:L158)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N158" t="s">
@@ -15842,7 +15836,7 @@
         <v>3</v>
       </c>
       <c r="H159">
-        <f>SUM(E159:G159)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I159" t="s">
@@ -15858,7 +15852,7 @@
         <v>3</v>
       </c>
       <c r="M159">
-        <f>SUM(J159:L159)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N159" t="s">
@@ -15888,7 +15882,7 @@
         <v>3</v>
       </c>
       <c r="H160">
-        <f>SUM(E160:G160)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I160" t="s">
@@ -15904,7 +15898,7 @@
         <v>3</v>
       </c>
       <c r="M160">
-        <f>SUM(J160:L160)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="N160" t="s">
@@ -15934,7 +15928,7 @@
         <v>3</v>
       </c>
       <c r="H161">
-        <f>SUM(E161:G161)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I161" t="s">
@@ -15950,7 +15944,7 @@
         <v>3</v>
       </c>
       <c r="M161">
-        <f>SUM(J161:L161)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N161" t="s">
@@ -15980,7 +15974,7 @@
         <v>3</v>
       </c>
       <c r="H162">
-        <f>SUM(E162:G162)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I162" t="s">
@@ -15996,7 +15990,7 @@
         <v>3</v>
       </c>
       <c r="M162">
-        <f>SUM(J162:L162)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N162" t="s">
@@ -16026,7 +16020,7 @@
         <v>3</v>
       </c>
       <c r="H163">
-        <f>SUM(E163:G163)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I163" t="s">
@@ -16042,7 +16036,7 @@
         <v>3</v>
       </c>
       <c r="M163">
-        <f>SUM(J163:L163)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N163" t="s">
@@ -16072,7 +16066,7 @@
         <v>3</v>
       </c>
       <c r="H164">
-        <f>SUM(E164:G164)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I164" t="s">
@@ -16088,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="M164">
-        <f>SUM(J164:L164)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N164" t="s">
@@ -16118,7 +16112,7 @@
         <v>3</v>
       </c>
       <c r="H165">
-        <f>SUM(E165:G165)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I165" t="s">
@@ -16134,7 +16128,7 @@
         <v>3</v>
       </c>
       <c r="M165">
-        <f>SUM(J165:L165)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N165" t="s">
@@ -16164,7 +16158,7 @@
         <v>3</v>
       </c>
       <c r="H166">
-        <f>SUM(E166:G166)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I166" t="s">
@@ -16180,7 +16174,7 @@
         <v>3</v>
       </c>
       <c r="M166">
-        <f>SUM(J166:L166)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="N166" t="s">
@@ -16210,7 +16204,7 @@
         <v>3</v>
       </c>
       <c r="H167">
-        <f>SUM(E167:G167)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I167" t="s">
@@ -16226,7 +16220,7 @@
         <v>3</v>
       </c>
       <c r="M167">
-        <f>SUM(J167:L167)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N167" t="s">
@@ -16256,7 +16250,7 @@
         <v>3</v>
       </c>
       <c r="H168">
-        <f>SUM(E168:G168)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I168" t="s">
@@ -16272,7 +16266,7 @@
         <v>3</v>
       </c>
       <c r="M168">
-        <f>SUM(J168:L168)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="N168" t="s">
@@ -16302,7 +16296,7 @@
         <v>3</v>
       </c>
       <c r="H169">
-        <f>SUM(E169:G169)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I169" t="s">
@@ -16318,7 +16312,7 @@
         <v>3</v>
       </c>
       <c r="M169">
-        <f>SUM(J169:L169)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="N169" t="s">
@@ -16348,7 +16342,7 @@
         <v>3</v>
       </c>
       <c r="H170">
-        <f>SUM(E170:G170)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I170" t="s">
@@ -16364,7 +16358,7 @@
         <v>3</v>
       </c>
       <c r="M170">
-        <f>SUM(J170:L170)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N170" t="s">
@@ -16394,7 +16388,7 @@
         <v>3</v>
       </c>
       <c r="H171">
-        <f>SUM(E171:G171)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I171" t="s">
@@ -16410,7 +16404,7 @@
         <v>2</v>
       </c>
       <c r="M171">
-        <f>SUM(J171:L171)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="N171" t="s">
@@ -16440,7 +16434,7 @@
         <v>3</v>
       </c>
       <c r="H172">
-        <f>SUM(E172:G172)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I172" t="s">
@@ -16456,7 +16450,7 @@
         <v>2</v>
       </c>
       <c r="M172">
-        <f>SUM(J172:L172)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N172" t="s">
@@ -16486,7 +16480,7 @@
         <v>3</v>
       </c>
       <c r="H173">
-        <f>SUM(E173:G173)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="I173" t="s">
@@ -16502,7 +16496,7 @@
         <v>3</v>
       </c>
       <c r="M173">
-        <f>SUM(J173:L173)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N173" t="s">
@@ -16532,7 +16526,7 @@
         <v>3</v>
       </c>
       <c r="H174">
-        <f>SUM(E174:G174)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I174" t="s">
@@ -16548,7 +16542,7 @@
         <v>3</v>
       </c>
       <c r="M174">
-        <f>SUM(J174:L174)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N174" t="s">
@@ -16578,7 +16572,7 @@
         <v>3</v>
       </c>
       <c r="H175">
-        <f>SUM(E175:G175)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I175" t="s">
@@ -16594,7 +16588,7 @@
         <v>2</v>
       </c>
       <c r="M175">
-        <f>SUM(J175:L175)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="N175" t="s">
@@ -16624,7 +16618,7 @@
         <v>3</v>
       </c>
       <c r="H176">
-        <f>SUM(E176:G176)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I176" t="s">
@@ -16640,7 +16634,7 @@
         <v>3</v>
       </c>
       <c r="M176">
-        <f>SUM(J176:L176)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="N176" t="s">
@@ -16670,7 +16664,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <f>SUM(E177:G177)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I177" t="s">
@@ -16686,7 +16680,7 @@
         <v>2</v>
       </c>
       <c r="M177">
-        <f>SUM(J177:L177)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="N177" t="s">
@@ -16716,7 +16710,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <f>SUM(E178:G178)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I178" t="s">
@@ -16732,7 +16726,7 @@
         <v>2</v>
       </c>
       <c r="M178">
-        <f>SUM(J178:L178)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="N178" t="s">
@@ -16762,7 +16756,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <f>SUM(E179:G179)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I179" t="s">
@@ -16778,7 +16772,7 @@
         <v>3</v>
       </c>
       <c r="M179">
-        <f>SUM(J179:L179)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N179" t="s">
@@ -16808,7 +16802,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <f>SUM(E180:G180)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I180" t="s">
@@ -16824,7 +16818,7 @@
         <v>2</v>
       </c>
       <c r="M180">
-        <f>SUM(J180:L180)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="N180" t="s">
@@ -16854,7 +16848,7 @@
         <v>3</v>
       </c>
       <c r="H181">
-        <f>SUM(E181:G181)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I181" t="s">
@@ -16870,7 +16864,7 @@
         <v>3</v>
       </c>
       <c r="M181">
-        <f>SUM(J181:L181)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N181" t="s">
@@ -16900,7 +16894,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <f>SUM(E182:G182)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I182" t="s">
@@ -16916,7 +16910,7 @@
         <v>3</v>
       </c>
       <c r="M182">
-        <f>SUM(J182:L182)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N182" t="s">
@@ -16946,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <f>SUM(E183:G183)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I183" t="s">
@@ -16962,7 +16956,7 @@
         <v>3</v>
       </c>
       <c r="M183">
-        <f>SUM(J183:L183)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N183" t="s">
@@ -16992,7 +16986,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <f>SUM(E184:G184)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I184" t="s">
@@ -17008,7 +17002,7 @@
         <v>3</v>
       </c>
       <c r="M184">
-        <f>SUM(J184:L184)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N184" t="s">
@@ -17038,7 +17032,7 @@
         <v>3</v>
       </c>
       <c r="H185">
-        <f>SUM(E185:G185)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="I185" t="s">
@@ -17054,7 +17048,7 @@
         <v>2</v>
       </c>
       <c r="M185">
-        <f>SUM(J185:L185)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="N185" t="s">
@@ -17084,7 +17078,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <f>SUM(E186:G186)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I186" t="s">
@@ -17100,7 +17094,7 @@
         <v>3</v>
       </c>
       <c r="M186">
-        <f>SUM(J186:L186)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N186" t="s">
@@ -17130,7 +17124,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <f>SUM(E187:G187)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I187" t="s">
@@ -17146,7 +17140,7 @@
         <v>3</v>
       </c>
       <c r="M187">
-        <f>SUM(J187:L187)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N187" t="s">
@@ -17176,7 +17170,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <f>SUM(E188:G188)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I188" t="s">
@@ -17192,7 +17186,7 @@
         <v>1</v>
       </c>
       <c r="M188">
-        <f>SUM(J188:L188)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="N188" t="s">
@@ -17222,7 +17216,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <f>SUM(E189:G189)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I189" t="s">
@@ -17238,7 +17232,7 @@
         <v>3</v>
       </c>
       <c r="M189">
-        <f>SUM(J189:L189)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N189" t="s">
@@ -17268,7 +17262,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <f>SUM(E190:G190)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I190" t="s">
@@ -17284,7 +17278,7 @@
         <v>3</v>
       </c>
       <c r="M190">
-        <f>SUM(J190:L190)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N190" t="s">
@@ -17314,7 +17308,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <f>SUM(E191:G191)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I191" t="s">
@@ -17330,7 +17324,7 @@
         <v>3</v>
       </c>
       <c r="M191">
-        <f>SUM(J191:L191)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N191" t="s">
@@ -17360,7 +17354,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <f>SUM(E192:G192)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I192" t="s">
@@ -17376,7 +17370,7 @@
         <v>3</v>
       </c>
       <c r="M192">
-        <f>SUM(J192:L192)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N192" t="s">
@@ -17406,7 +17400,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <f>SUM(E193:G193)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I193" t="s">
@@ -17422,7 +17416,7 @@
         <v>3</v>
       </c>
       <c r="M193">
-        <f>SUM(J193:L193)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N193" t="s">
@@ -17452,7 +17446,7 @@
         <v>3</v>
       </c>
       <c r="H194">
-        <f>SUM(E194:G194)</f>
+        <f t="shared" ref="H194:H257" si="6">SUM(E194:G194)</f>
         <v>7</v>
       </c>
       <c r="I194" t="s">
@@ -17468,7 +17462,7 @@
         <v>3</v>
       </c>
       <c r="M194">
-        <f>SUM(J194:L194)</f>
+        <f t="shared" ref="M194:M257" si="7">SUM(J194:L194)</f>
         <v>8</v>
       </c>
       <c r="N194" t="s">
@@ -17498,7 +17492,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <f>SUM(E195:G195)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I195" t="s">
@@ -17514,7 +17508,7 @@
         <v>3</v>
       </c>
       <c r="M195">
-        <f>SUM(J195:L195)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N195" t="s">
@@ -17544,7 +17538,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <f>SUM(E196:G196)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I196" t="s">
@@ -17560,7 +17554,7 @@
         <v>3</v>
       </c>
       <c r="M196">
-        <f>SUM(J196:L196)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N196" t="s">
@@ -17590,7 +17584,7 @@
         <v>3</v>
       </c>
       <c r="H197">
-        <f>SUM(E197:G197)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I197" t="s">
@@ -17606,7 +17600,7 @@
         <v>3</v>
       </c>
       <c r="M197">
-        <f>SUM(J197:L197)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N197" t="s">
@@ -17636,7 +17630,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <f>SUM(E198:G198)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I198" t="s">
@@ -17652,7 +17646,7 @@
         <v>3</v>
       </c>
       <c r="M198">
-        <f>SUM(J198:L198)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N198" t="s">
@@ -17682,7 +17676,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <f>SUM(E199:G199)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I199" t="s">
@@ -17698,7 +17692,7 @@
         <v>3</v>
       </c>
       <c r="M199">
-        <f>SUM(J199:L199)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N199" t="s">
@@ -17728,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <f>SUM(E200:G200)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I200" t="s">
@@ -17744,7 +17738,7 @@
         <v>3</v>
       </c>
       <c r="M200">
-        <f>SUM(J200:L200)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N200" t="s">
@@ -17774,7 +17768,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <f>SUM(E201:G201)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I201" t="s">
@@ -17790,7 +17784,7 @@
         <v>3</v>
       </c>
       <c r="M201">
-        <f>SUM(J201:L201)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N201" t="s">
@@ -17820,7 +17814,7 @@
         <v>3</v>
       </c>
       <c r="H202">
-        <f>SUM(E202:G202)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I202" t="s">
@@ -17836,7 +17830,7 @@
         <v>3</v>
       </c>
       <c r="M202">
-        <f>SUM(J202:L202)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N202" t="s">
@@ -17866,7 +17860,7 @@
         <v>3</v>
       </c>
       <c r="H203">
-        <f>SUM(E203:G203)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I203" t="s">
@@ -17882,7 +17876,7 @@
         <v>3</v>
       </c>
       <c r="M203">
-        <f>SUM(J203:L203)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N203" t="s">
@@ -17912,7 +17906,7 @@
         <v>3</v>
       </c>
       <c r="H204">
-        <f>SUM(E204:G204)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I204" t="s">
@@ -17928,7 +17922,7 @@
         <v>3</v>
       </c>
       <c r="M204">
-        <f>SUM(J204:L204)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N204" t="s">
@@ -17958,7 +17952,7 @@
         <v>3</v>
       </c>
       <c r="H205">
-        <f>SUM(E205:G205)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I205" t="s">
@@ -17974,7 +17968,7 @@
         <v>3</v>
       </c>
       <c r="M205">
-        <f>SUM(J205:L205)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="N205" t="s">
@@ -18004,7 +17998,7 @@
         <v>3</v>
       </c>
       <c r="H206">
-        <f>SUM(E206:G206)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I206" t="s">
@@ -18020,7 +18014,7 @@
         <v>3</v>
       </c>
       <c r="M206">
-        <f>SUM(J206:L206)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N206" t="s">
@@ -18050,7 +18044,7 @@
         <v>3</v>
       </c>
       <c r="H207">
-        <f>SUM(E207:G207)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I207" t="s">
@@ -18066,7 +18060,7 @@
         <v>3</v>
       </c>
       <c r="M207">
-        <f>SUM(J207:L207)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N207" t="s">
@@ -18096,7 +18090,7 @@
         <v>3</v>
       </c>
       <c r="H208">
-        <f>SUM(E208:G208)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I208" t="s">
@@ -18112,7 +18106,7 @@
         <v>3</v>
       </c>
       <c r="M208">
-        <f>SUM(J208:L208)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N208" t="s">
@@ -18142,7 +18136,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <f>SUM(E209:G209)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I209" t="s">
@@ -18158,7 +18152,7 @@
         <v>3</v>
       </c>
       <c r="M209">
-        <f>SUM(J209:L209)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N209" t="s">
@@ -18188,7 +18182,7 @@
         <v>3</v>
       </c>
       <c r="H210">
-        <f>SUM(E210:G210)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I210" t="s">
@@ -18204,7 +18198,7 @@
         <v>3</v>
       </c>
       <c r="M210">
-        <f>SUM(J210:L210)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N210" t="s">
@@ -18234,7 +18228,7 @@
         <v>3</v>
       </c>
       <c r="H211">
-        <f>SUM(E211:G211)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I211" t="s">
@@ -18250,7 +18244,7 @@
         <v>3</v>
       </c>
       <c r="M211">
-        <f>SUM(J211:L211)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N211" t="s">
@@ -18280,7 +18274,7 @@
         <v>3</v>
       </c>
       <c r="H212">
-        <f>SUM(E212:G212)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I212" t="s">
@@ -18296,7 +18290,7 @@
         <v>3</v>
       </c>
       <c r="M212">
-        <f>SUM(J212:L212)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="N212" t="s">
@@ -18326,7 +18320,7 @@
         <v>3</v>
       </c>
       <c r="H213">
-        <f>SUM(E213:G213)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I213" t="s">
@@ -18342,7 +18336,7 @@
         <v>3</v>
       </c>
       <c r="M213">
-        <f>SUM(J213:L213)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N213" t="s">
@@ -18372,7 +18366,7 @@
         <v>3</v>
       </c>
       <c r="H214">
-        <f>SUM(E214:G214)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I214" t="s">
@@ -18388,7 +18382,7 @@
         <v>3</v>
       </c>
       <c r="M214">
-        <f>SUM(J214:L214)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N214" t="s">
@@ -18418,7 +18412,7 @@
         <v>3</v>
       </c>
       <c r="H215">
-        <f>SUM(E215:G215)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I215" t="s">
@@ -18434,7 +18428,7 @@
         <v>2</v>
       </c>
       <c r="M215">
-        <f>SUM(J215:L215)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N215" t="s">
@@ -18464,7 +18458,7 @@
         <v>3</v>
       </c>
       <c r="H216">
-        <f>SUM(E216:G216)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I216" t="s">
@@ -18480,7 +18474,7 @@
         <v>3</v>
       </c>
       <c r="M216">
-        <f>SUM(J216:L216)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N216" t="s">
@@ -18510,7 +18504,7 @@
         <v>3</v>
       </c>
       <c r="H217">
-        <f>SUM(E217:G217)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I217" t="s">
@@ -18526,7 +18520,7 @@
         <v>3</v>
       </c>
       <c r="M217">
-        <f>SUM(J217:L217)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N217" t="s">
@@ -18556,7 +18550,7 @@
         <v>3</v>
       </c>
       <c r="H218">
-        <f>SUM(E218:G218)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I218" t="s">
@@ -18572,7 +18566,7 @@
         <v>2</v>
       </c>
       <c r="M218">
-        <f>SUM(J218:L218)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N218" t="s">
@@ -18602,7 +18596,7 @@
         <v>3</v>
       </c>
       <c r="H219">
-        <f>SUM(E219:G219)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I219" t="s">
@@ -18618,7 +18612,7 @@
         <v>3</v>
       </c>
       <c r="M219">
-        <f>SUM(J219:L219)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N219" t="s">
@@ -18648,7 +18642,7 @@
         <v>3</v>
       </c>
       <c r="H220">
-        <f>SUM(E220:G220)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I220" t="s">
@@ -18664,7 +18658,7 @@
         <v>3</v>
       </c>
       <c r="M220">
-        <f>SUM(J220:L220)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N220" t="s">
@@ -18694,7 +18688,7 @@
         <v>3</v>
       </c>
       <c r="H221">
-        <f>SUM(E221:G221)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I221" t="s">
@@ -18710,7 +18704,7 @@
         <v>3</v>
       </c>
       <c r="M221">
-        <f>SUM(J221:L221)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N221" t="s">
@@ -18740,7 +18734,7 @@
         <v>3</v>
       </c>
       <c r="H222">
-        <f>SUM(E222:G222)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I222" t="s">
@@ -18756,7 +18750,7 @@
         <v>3</v>
       </c>
       <c r="M222">
-        <f>SUM(J222:L222)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="N222" t="s">
@@ -18786,7 +18780,7 @@
         <v>3</v>
       </c>
       <c r="H223">
-        <f>SUM(E223:G223)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I223" t="s">
@@ -18802,7 +18796,7 @@
         <v>3</v>
       </c>
       <c r="M223">
-        <f>SUM(J223:L223)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N223" t="s">
@@ -18832,7 +18826,7 @@
         <v>3</v>
       </c>
       <c r="H224">
-        <f>SUM(E224:G224)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I224" t="s">
@@ -18848,7 +18842,7 @@
         <v>3</v>
       </c>
       <c r="M224">
-        <f>SUM(J224:L224)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N224" t="s">
@@ -18878,7 +18872,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <f>SUM(E225:G225)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I225" t="s">
@@ -18894,7 +18888,7 @@
         <v>3</v>
       </c>
       <c r="M225">
-        <f>SUM(J225:L225)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N225" t="s">
@@ -18924,7 +18918,7 @@
         <v>3</v>
       </c>
       <c r="H226">
-        <f>SUM(E226:G226)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I226" t="s">
@@ -18940,7 +18934,7 @@
         <v>3</v>
       </c>
       <c r="M226">
-        <f>SUM(J226:L226)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="N226" t="s">
@@ -18970,7 +18964,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <f>SUM(E227:G227)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I227" t="s">
@@ -18986,7 +18980,7 @@
         <v>2</v>
       </c>
       <c r="M227">
-        <f>SUM(J227:L227)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N227" t="s">
@@ -19016,7 +19010,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <f>SUM(E228:G228)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I228" t="s">
@@ -19032,7 +19026,7 @@
         <v>2</v>
       </c>
       <c r="M228">
-        <f>SUM(J228:L228)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N228" t="s">
@@ -19062,7 +19056,7 @@
         <v>3</v>
       </c>
       <c r="H229">
-        <f>SUM(E229:G229)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I229" t="s">
@@ -19078,7 +19072,7 @@
         <v>2</v>
       </c>
       <c r="M229">
-        <f>SUM(J229:L229)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N229" t="s">
@@ -19108,7 +19102,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <f>SUM(E230:G230)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I230" t="s">
@@ -19124,7 +19118,7 @@
         <v>2</v>
       </c>
       <c r="M230">
-        <f>SUM(J230:L230)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N230" t="s">
@@ -19154,7 +19148,7 @@
         <v>3</v>
       </c>
       <c r="H231">
-        <f>SUM(E231:G231)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I231" t="s">
@@ -19170,7 +19164,7 @@
         <v>2</v>
       </c>
       <c r="M231">
-        <f>SUM(J231:L231)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N231" t="s">
@@ -19200,7 +19194,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <f>SUM(E232:G232)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I232" t="s">
@@ -19216,7 +19210,7 @@
         <v>3</v>
       </c>
       <c r="M232">
-        <f>SUM(J232:L232)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N232" t="s">
@@ -19246,7 +19240,7 @@
         <v>3</v>
       </c>
       <c r="H233">
-        <f>SUM(E233:G233)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I233" t="s">
@@ -19262,7 +19256,7 @@
         <v>3</v>
       </c>
       <c r="M233">
-        <f>SUM(J233:L233)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N233" t="s">
@@ -19292,7 +19286,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <f>SUM(E234:G234)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I234" t="s">
@@ -19308,7 +19302,7 @@
         <v>3</v>
       </c>
       <c r="M234">
-        <f>SUM(J234:L234)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N234" t="s">
@@ -19338,7 +19332,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <f>SUM(E235:G235)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I235" t="s">
@@ -19354,7 +19348,7 @@
         <v>2</v>
       </c>
       <c r="M235">
-        <f>SUM(J235:L235)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N235" t="s">
@@ -19384,7 +19378,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <f>SUM(E236:G236)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I236" t="s">
@@ -19400,7 +19394,7 @@
         <v>3</v>
       </c>
       <c r="M236">
-        <f>SUM(J236:L236)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N236" t="s">
@@ -19430,7 +19424,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <f>SUM(E237:G237)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I237" t="s">
@@ -19446,7 +19440,7 @@
         <v>3</v>
       </c>
       <c r="M237">
-        <f>SUM(J237:L237)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N237" t="s">
@@ -19476,7 +19470,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <f>SUM(E238:G238)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I238" t="s">
@@ -19492,7 +19486,7 @@
         <v>3</v>
       </c>
       <c r="M238">
-        <f>SUM(J238:L238)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N238" t="s">
@@ -19522,7 +19516,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <f>SUM(E239:G239)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I239" t="s">
@@ -19538,7 +19532,7 @@
         <v>3</v>
       </c>
       <c r="M239">
-        <f>SUM(J239:L239)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N239" t="s">
@@ -19568,7 +19562,7 @@
         <v>3</v>
       </c>
       <c r="H240">
-        <f>SUM(E240:G240)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I240" t="s">
@@ -19584,7 +19578,7 @@
         <v>3</v>
       </c>
       <c r="M240">
-        <f>SUM(J240:L240)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N240" t="s">
@@ -19614,7 +19608,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <f>SUM(E241:G241)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I241" t="s">
@@ -19630,7 +19624,7 @@
         <v>3</v>
       </c>
       <c r="M241">
-        <f>SUM(J241:L241)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N241" t="s">
@@ -19660,7 +19654,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <f>SUM(E242:G242)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I242" t="s">
@@ -19676,7 +19670,7 @@
         <v>3</v>
       </c>
       <c r="M242">
-        <f>SUM(J242:L242)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N242" t="s">
@@ -19706,7 +19700,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <f>SUM(E243:G243)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I243" t="s">
@@ -19722,7 +19716,7 @@
         <v>3</v>
       </c>
       <c r="M243">
-        <f>SUM(J243:L243)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N243" t="s">
@@ -19752,7 +19746,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <f>SUM(E244:G244)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I244" t="s">
@@ -19768,7 +19762,7 @@
         <v>3</v>
       </c>
       <c r="M244">
-        <f>SUM(J244:L244)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N244" t="s">
@@ -19798,7 +19792,7 @@
         <v>3</v>
       </c>
       <c r="H245">
-        <f>SUM(E245:G245)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I245" t="s">
@@ -19814,7 +19808,7 @@
         <v>3</v>
       </c>
       <c r="M245">
-        <f>SUM(J245:L245)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N245" t="s">
@@ -19844,7 +19838,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <f>SUM(E246:G246)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I246" t="s">
@@ -19860,7 +19854,7 @@
         <v>3</v>
       </c>
       <c r="M246">
-        <f>SUM(J246:L246)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N246" t="s">
@@ -19890,7 +19884,7 @@
         <v>3</v>
       </c>
       <c r="H247">
-        <f>SUM(E247:G247)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I247" t="s">
@@ -19906,7 +19900,7 @@
         <v>1</v>
       </c>
       <c r="M247">
-        <f>SUM(J247:L247)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="N247" t="s">
@@ -19936,7 +19930,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <f>SUM(E248:G248)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I248" t="s">
@@ -19952,7 +19946,7 @@
         <v>3</v>
       </c>
       <c r="M248">
-        <f>SUM(J248:L248)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N248" t="s">
@@ -19982,7 +19976,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <f>SUM(E249:G249)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I249" t="s">
@@ -19998,7 +19992,7 @@
         <v>3</v>
       </c>
       <c r="M249">
-        <f>SUM(J249:L249)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N249" t="s">
@@ -20028,7 +20022,7 @@
         <v>3</v>
       </c>
       <c r="H250">
-        <f>SUM(E250:G250)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I250" t="s">
@@ -20044,7 +20038,7 @@
         <v>3</v>
       </c>
       <c r="M250">
-        <f>SUM(J250:L250)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N250" t="s">
@@ -20074,7 +20068,7 @@
         <v>3</v>
       </c>
       <c r="H251">
-        <f>SUM(E251:G251)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I251" t="s">
@@ -20090,7 +20084,7 @@
         <v>3</v>
       </c>
       <c r="M251">
-        <f>SUM(J251:L251)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N251" t="s">
@@ -20120,7 +20114,7 @@
         <v>3</v>
       </c>
       <c r="H252">
-        <f>SUM(E252:G252)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I252" t="s">
@@ -20136,7 +20130,7 @@
         <v>3</v>
       </c>
       <c r="M252">
-        <f>SUM(J252:L252)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N252" t="s">
@@ -20166,7 +20160,7 @@
         <v>3</v>
       </c>
       <c r="H253">
-        <f>SUM(E253:G253)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I253" t="s">
@@ -20182,7 +20176,7 @@
         <v>3</v>
       </c>
       <c r="M253">
-        <f>SUM(J253:L253)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N253" t="s">
@@ -20212,7 +20206,7 @@
         <v>3</v>
       </c>
       <c r="H254">
-        <f>SUM(E254:G254)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I254" t="s">
@@ -20228,7 +20222,7 @@
         <v>2</v>
       </c>
       <c r="M254">
-        <f>SUM(J254:L254)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N254" t="s">
@@ -20258,7 +20252,7 @@
         <v>3</v>
       </c>
       <c r="H255">
-        <f>SUM(E255:G255)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I255" t="s">
@@ -20274,7 +20268,7 @@
         <v>3</v>
       </c>
       <c r="M255">
-        <f>SUM(J255:L255)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N255" t="s">
@@ -20304,7 +20298,7 @@
         <v>3</v>
       </c>
       <c r="H256">
-        <f>SUM(E256:G256)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I256" t="s">
@@ -20320,7 +20314,7 @@
         <v>3</v>
       </c>
       <c r="M256">
-        <f>SUM(J256:L256)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="N256" t="s">
@@ -20350,7 +20344,7 @@
         <v>3</v>
       </c>
       <c r="H257">
-        <f>SUM(E257:G257)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I257" t="s">
@@ -20366,7 +20360,7 @@
         <v>2</v>
       </c>
       <c r="M257">
-        <f>SUM(J257:L257)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N257" t="s">
@@ -20396,7 +20390,7 @@
         <v>3</v>
       </c>
       <c r="H258">
-        <f>SUM(E258:G258)</f>
+        <f t="shared" ref="H258:H321" si="8">SUM(E258:G258)</f>
         <v>8</v>
       </c>
       <c r="I258" t="s">
@@ -20412,7 +20406,7 @@
         <v>3</v>
       </c>
       <c r="M258">
-        <f>SUM(J258:L258)</f>
+        <f t="shared" ref="M258:M321" si="9">SUM(J258:L258)</f>
         <v>8</v>
       </c>
       <c r="N258" t="s">
@@ -20442,7 +20436,7 @@
         <v>3</v>
       </c>
       <c r="H259">
-        <f>SUM(E259:G259)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I259" t="s">
@@ -20458,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="M259">
-        <f>SUM(J259:L259)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="N259" t="s">
@@ -20488,7 +20482,7 @@
         <v>3</v>
       </c>
       <c r="H260">
-        <f>SUM(E260:G260)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I260" t="s">
@@ -20504,7 +20498,7 @@
         <v>3</v>
       </c>
       <c r="M260">
-        <f>SUM(J260:L260)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N260" t="s">
@@ -20534,7 +20528,7 @@
         <v>3</v>
       </c>
       <c r="H261">
-        <f>SUM(E261:G261)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I261" t="s">
@@ -20550,7 +20544,7 @@
         <v>3</v>
       </c>
       <c r="M261">
-        <f>SUM(J261:L261)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N261" t="s">
@@ -20580,7 +20574,7 @@
         <v>3</v>
       </c>
       <c r="H262">
-        <f>SUM(E262:G262)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I262" t="s">
@@ -20596,7 +20590,7 @@
         <v>3</v>
       </c>
       <c r="M262">
-        <f>SUM(J262:L262)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="N262" t="s">
@@ -20626,7 +20620,7 @@
         <v>3</v>
       </c>
       <c r="H263">
-        <f>SUM(E263:G263)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I263" t="s">
@@ -20642,7 +20636,7 @@
         <v>3</v>
       </c>
       <c r="M263">
-        <f>SUM(J263:L263)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="N263" t="s">
@@ -20672,7 +20666,7 @@
         <v>3</v>
       </c>
       <c r="H264">
-        <f>SUM(E264:G264)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I264" t="s">
@@ -20688,7 +20682,7 @@
         <v>3</v>
       </c>
       <c r="M264">
-        <f>SUM(J264:L264)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N264" t="s">
@@ -20718,7 +20712,7 @@
         <v>3</v>
       </c>
       <c r="H265">
-        <f>SUM(E265:G265)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I265" t="s">
@@ -20734,7 +20728,7 @@
         <v>3</v>
       </c>
       <c r="M265">
-        <f>SUM(J265:L265)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N265" t="s">
@@ -20764,7 +20758,7 @@
         <v>3</v>
       </c>
       <c r="H266">
-        <f>SUM(E266:G266)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I266" t="s">
@@ -20780,7 +20774,7 @@
         <v>3</v>
       </c>
       <c r="M266">
-        <f>SUM(J266:L266)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N266" t="s">
@@ -20810,7 +20804,7 @@
         <v>3</v>
       </c>
       <c r="H267">
-        <f>SUM(E267:G267)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I267" t="s">
@@ -20826,7 +20820,7 @@
         <v>3</v>
       </c>
       <c r="M267">
-        <f>SUM(J267:L267)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N267" t="s">
@@ -20856,7 +20850,7 @@
         <v>3</v>
       </c>
       <c r="H268">
-        <f>SUM(E268:G268)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I268" t="s">
@@ -20872,7 +20866,7 @@
         <v>2</v>
       </c>
       <c r="M268">
-        <f>SUM(J268:L268)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N268" t="s">
@@ -20902,7 +20896,7 @@
         <v>3</v>
       </c>
       <c r="H269">
-        <f>SUM(E269:G269)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I269" t="s">
@@ -20918,7 +20912,7 @@
         <v>3</v>
       </c>
       <c r="M269">
-        <f>SUM(J269:L269)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N269" t="s">
@@ -20948,7 +20942,7 @@
         <v>3</v>
       </c>
       <c r="H270">
-        <f>SUM(E270:G270)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I270" t="s">
@@ -20964,7 +20958,7 @@
         <v>3</v>
       </c>
       <c r="M270">
-        <f>SUM(J270:L270)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="N270" t="s">
@@ -20994,7 +20988,7 @@
         <v>3</v>
       </c>
       <c r="H271">
-        <f>SUM(E271:G271)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I271" t="s">
@@ -21010,7 +21004,7 @@
         <v>2</v>
       </c>
       <c r="M271">
-        <f>SUM(J271:L271)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N271" t="s">
@@ -21040,7 +21034,7 @@
         <v>3</v>
       </c>
       <c r="H272">
-        <f>SUM(E272:G272)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I272" t="s">
@@ -21056,7 +21050,7 @@
         <v>3</v>
       </c>
       <c r="M272">
-        <f>SUM(J272:L272)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="N272" t="s">
@@ -21086,7 +21080,7 @@
         <v>3</v>
       </c>
       <c r="H273">
-        <f>SUM(E273:G273)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I273" t="s">
@@ -21102,7 +21096,7 @@
         <v>3</v>
       </c>
       <c r="M273">
-        <f>SUM(J273:L273)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="N273" t="s">
@@ -21132,7 +21126,7 @@
         <v>3</v>
       </c>
       <c r="H274">
-        <f>SUM(E274:G274)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I274" t="s">
@@ -21148,7 +21142,7 @@
         <v>3</v>
       </c>
       <c r="M274">
-        <f>SUM(J274:L274)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="N274" t="s">
@@ -21178,7 +21172,7 @@
         <v>3</v>
       </c>
       <c r="H275">
-        <f>SUM(E275:G275)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I275" t="s">
@@ -21194,7 +21188,7 @@
         <v>3</v>
       </c>
       <c r="M275">
-        <f>SUM(J275:L275)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N275" t="s">
@@ -21224,7 +21218,7 @@
         <v>3</v>
       </c>
       <c r="H276">
-        <f>SUM(E276:G276)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I276" t="s">
@@ -21240,7 +21234,7 @@
         <v>3</v>
       </c>
       <c r="M276">
-        <f>SUM(J276:L276)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N276" t="s">
@@ -21270,7 +21264,7 @@
         <v>3</v>
       </c>
       <c r="H277">
-        <f>SUM(E277:G277)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I277" t="s">
@@ -21286,7 +21280,7 @@
         <v>2</v>
       </c>
       <c r="M277">
-        <f>SUM(J277:L277)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N277" t="s">
@@ -21316,7 +21310,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <f>SUM(E278:G278)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I278" t="s">
@@ -21332,7 +21326,7 @@
         <v>3</v>
       </c>
       <c r="M278">
-        <f>SUM(J278:L278)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N278" t="s">
@@ -21362,7 +21356,7 @@
         <v>3</v>
       </c>
       <c r="H279">
-        <f>SUM(E279:G279)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I279" t="s">
@@ -21378,7 +21372,7 @@
         <v>2</v>
       </c>
       <c r="M279">
-        <f>SUM(J279:L279)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N279" t="s">
@@ -21408,7 +21402,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <f>SUM(E280:G280)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I280" t="s">
@@ -21424,7 +21418,7 @@
         <v>3</v>
       </c>
       <c r="M280">
-        <f>SUM(J280:L280)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N280" t="s">
@@ -21454,7 +21448,7 @@
         <v>3</v>
       </c>
       <c r="H281">
-        <f>SUM(E281:G281)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I281" t="s">
@@ -21470,7 +21464,7 @@
         <v>3</v>
       </c>
       <c r="M281">
-        <f>SUM(J281:L281)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N281" t="s">
@@ -21500,7 +21494,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <f>SUM(E282:G282)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I282" t="s">
@@ -21516,7 +21510,7 @@
         <v>3</v>
       </c>
       <c r="M282">
-        <f>SUM(J282:L282)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N282" t="s">
@@ -21546,7 +21540,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <f>SUM(E283:G283)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I283" t="s">
@@ -21562,7 +21556,7 @@
         <v>3</v>
       </c>
       <c r="M283">
-        <f>SUM(J283:L283)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N283" t="s">
@@ -21592,7 +21586,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <f>SUM(E284:G284)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I284" t="s">
@@ -21608,7 +21602,7 @@
         <v>3</v>
       </c>
       <c r="M284">
-        <f>SUM(J284:L284)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N284" t="s">
@@ -21638,7 +21632,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <f>SUM(E285:G285)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I285" t="s">
@@ -21654,7 +21648,7 @@
         <v>2</v>
       </c>
       <c r="M285">
-        <f>SUM(J285:L285)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="N285" t="s">
@@ -21684,7 +21678,7 @@
         <v>3</v>
       </c>
       <c r="H286">
-        <f>SUM(E286:G286)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I286" t="s">
@@ -21700,7 +21694,7 @@
         <v>3</v>
       </c>
       <c r="M286">
-        <f>SUM(J286:L286)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N286" t="s">
@@ -21730,7 +21724,7 @@
         <v>3</v>
       </c>
       <c r="H287">
-        <f>SUM(E287:G287)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I287" t="s">
@@ -21746,7 +21740,7 @@
         <v>3</v>
       </c>
       <c r="M287">
-        <f>SUM(J287:L287)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N287" t="s">
@@ -21776,7 +21770,7 @@
         <v>3</v>
       </c>
       <c r="H288">
-        <f>SUM(E288:G288)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I288" t="s">
@@ -21792,7 +21786,7 @@
         <v>1</v>
       </c>
       <c r="M288">
-        <f>SUM(J288:L288)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N288" t="s">
@@ -21822,7 +21816,7 @@
         <v>3</v>
       </c>
       <c r="H289">
-        <f>SUM(E289:G289)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I289" t="s">
@@ -21838,7 +21832,7 @@
         <v>3</v>
       </c>
       <c r="M289">
-        <f>SUM(J289:L289)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N289" t="s">
@@ -21868,7 +21862,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <f>SUM(E290:G290)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I290" t="s">
@@ -21884,7 +21878,7 @@
         <v>3</v>
       </c>
       <c r="M290">
-        <f>SUM(J290:L290)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N290" t="s">
@@ -21914,7 +21908,7 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <f>SUM(E291:G291)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I291" t="s">
@@ -21930,7 +21924,7 @@
         <v>3</v>
       </c>
       <c r="M291">
-        <f>SUM(J291:L291)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N291" t="s">
@@ -21960,7 +21954,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <f>SUM(E292:G292)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I292" t="s">
@@ -21976,7 +21970,7 @@
         <v>3</v>
       </c>
       <c r="M292">
-        <f>SUM(J292:L292)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N292" t="s">
@@ -22006,7 +22000,7 @@
         <v>3</v>
       </c>
       <c r="H293">
-        <f>SUM(E293:G293)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I293" t="s">
@@ -22022,7 +22016,7 @@
         <v>3</v>
       </c>
       <c r="M293">
-        <f>SUM(J293:L293)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N293" t="s">
@@ -22052,7 +22046,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <f>SUM(E294:G294)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I294" t="s">
@@ -22068,7 +22062,7 @@
         <v>3</v>
       </c>
       <c r="M294">
-        <f>SUM(J294:L294)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N294" t="s">
@@ -22098,7 +22092,7 @@
         <v>3</v>
       </c>
       <c r="H295">
-        <f>SUM(E295:G295)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I295" t="s">
@@ -22114,7 +22108,7 @@
         <v>3</v>
       </c>
       <c r="M295">
-        <f>SUM(J295:L295)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N295" t="s">
@@ -22144,7 +22138,7 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <f>SUM(E296:G296)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I296" t="s">
@@ -22160,7 +22154,7 @@
         <v>3</v>
       </c>
       <c r="M296">
-        <f>SUM(J296:L296)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N296" t="s">
@@ -22190,7 +22184,7 @@
         <v>3</v>
       </c>
       <c r="H297">
-        <f>SUM(E297:G297)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I297" t="s">
@@ -22206,7 +22200,7 @@
         <v>3</v>
       </c>
       <c r="M297">
-        <f>SUM(J297:L297)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N297" t="s">
@@ -22236,7 +22230,7 @@
         <v>3</v>
       </c>
       <c r="H298">
-        <f>SUM(E298:G298)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I298" t="s">
@@ -22252,7 +22246,7 @@
         <v>3</v>
       </c>
       <c r="M298">
-        <f>SUM(J298:L298)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N298" t="s">
@@ -22282,7 +22276,7 @@
         <v>3</v>
       </c>
       <c r="H299">
-        <f>SUM(E299:G299)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I299" t="s">
@@ -22298,7 +22292,7 @@
         <v>3</v>
       </c>
       <c r="M299">
-        <f>SUM(J299:L299)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N299" t="s">
@@ -22328,7 +22322,7 @@
         <v>3</v>
       </c>
       <c r="H300">
-        <f>SUM(E300:G300)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I300" t="s">
@@ -22344,7 +22338,7 @@
         <v>3</v>
       </c>
       <c r="M300">
-        <f>SUM(J300:L300)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N300" t="s">
@@ -22374,7 +22368,7 @@
         <v>3</v>
       </c>
       <c r="H301">
-        <f>SUM(E301:G301)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I301" t="s">
@@ -22390,7 +22384,7 @@
         <v>3</v>
       </c>
       <c r="M301">
-        <f>SUM(J301:L301)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N301" t="s">
@@ -22420,7 +22414,7 @@
         <v>3</v>
       </c>
       <c r="H302">
-        <f>SUM(E302:G302)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I302" t="s">
@@ -22436,7 +22430,7 @@
         <v>3</v>
       </c>
       <c r="M302">
-        <f>SUM(J302:L302)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N302" t="s">
@@ -22466,7 +22460,7 @@
         <v>3</v>
       </c>
       <c r="H303">
-        <f>SUM(E303:G303)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I303" t="s">
@@ -22482,7 +22476,7 @@
         <v>2</v>
       </c>
       <c r="M303">
-        <f>SUM(J303:L303)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N303" t="s">
@@ -22512,7 +22506,7 @@
         <v>3</v>
       </c>
       <c r="H304">
-        <f>SUM(E304:G304)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I304" t="s">
@@ -22528,7 +22522,7 @@
         <v>3</v>
       </c>
       <c r="M304">
-        <f>SUM(J304:L304)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N304" t="s">
@@ -22558,7 +22552,7 @@
         <v>1</v>
       </c>
       <c r="H305">
-        <f>SUM(E305:G305)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I305" t="s">
@@ -22574,7 +22568,7 @@
         <v>3</v>
       </c>
       <c r="M305">
-        <f>SUM(J305:L305)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N305" t="s">
@@ -22604,7 +22598,7 @@
         <v>3</v>
       </c>
       <c r="H306">
-        <f>SUM(E306:G306)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I306" t="s">
@@ -22620,7 +22614,7 @@
         <v>3</v>
       </c>
       <c r="M306">
-        <f>SUM(J306:L306)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N306" t="s">
@@ -22650,7 +22644,7 @@
         <v>3</v>
       </c>
       <c r="H307">
-        <f>SUM(E307:G307)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I307" t="s">
@@ -22666,7 +22660,7 @@
         <v>2</v>
       </c>
       <c r="M307">
-        <f>SUM(J307:L307)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N307" t="s">
@@ -22696,7 +22690,7 @@
         <v>3</v>
       </c>
       <c r="H308">
-        <f>SUM(E308:G308)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I308" t="s">
@@ -22712,7 +22706,7 @@
         <v>3</v>
       </c>
       <c r="M308">
-        <f>SUM(J308:L308)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N308" t="s">
@@ -22742,7 +22736,7 @@
         <v>3</v>
       </c>
       <c r="H309">
-        <f>SUM(E309:G309)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I309" t="s">
@@ -22758,7 +22752,7 @@
         <v>3</v>
       </c>
       <c r="M309">
-        <f>SUM(J309:L309)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N309" t="s">
@@ -22788,7 +22782,7 @@
         <v>3</v>
       </c>
       <c r="H310">
-        <f>SUM(E310:G310)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I310" t="s">
@@ -22804,7 +22798,7 @@
         <v>2</v>
       </c>
       <c r="M310">
-        <f>SUM(J310:L310)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N310" t="s">
@@ -22834,7 +22828,7 @@
         <v>3</v>
       </c>
       <c r="H311">
-        <f>SUM(E311:G311)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I311" t="s">
@@ -22850,7 +22844,7 @@
         <v>3</v>
       </c>
       <c r="M311">
-        <f>SUM(J311:L311)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N311" t="s">
@@ -22880,7 +22874,7 @@
         <v>3</v>
       </c>
       <c r="H312">
-        <f>SUM(E312:G312)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I312" t="s">
@@ -22896,7 +22890,7 @@
         <v>3</v>
       </c>
       <c r="M312">
-        <f>SUM(J312:L312)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N312" t="s">
@@ -22926,7 +22920,7 @@
         <v>3</v>
       </c>
       <c r="H313">
-        <f>SUM(E313:G313)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I313" t="s">
@@ -22942,7 +22936,7 @@
         <v>3</v>
       </c>
       <c r="M313">
-        <f>SUM(J313:L313)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N313" t="s">
@@ -22972,7 +22966,7 @@
         <v>3</v>
       </c>
       <c r="H314">
-        <f>SUM(E314:G314)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I314" t="s">
@@ -22988,7 +22982,7 @@
         <v>3</v>
       </c>
       <c r="M314">
-        <f>SUM(J314:L314)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N314" t="s">
@@ -23018,7 +23012,7 @@
         <v>3</v>
       </c>
       <c r="H315">
-        <f>SUM(E315:G315)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I315" t="s">
@@ -23034,7 +23028,7 @@
         <v>3</v>
       </c>
       <c r="M315">
-        <f>SUM(J315:L315)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="N315" t="s">
@@ -23064,7 +23058,7 @@
         <v>3</v>
       </c>
       <c r="H316">
-        <f>SUM(E316:G316)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I316" t="s">
@@ -23080,7 +23074,7 @@
         <v>3</v>
       </c>
       <c r="M316">
-        <f>SUM(J316:L316)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N316" t="s">
@@ -23110,7 +23104,7 @@
         <v>3</v>
       </c>
       <c r="H317">
-        <f>SUM(E317:G317)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I317" t="s">
@@ -23126,7 +23120,7 @@
         <v>2</v>
       </c>
       <c r="M317">
-        <f>SUM(J317:L317)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N317" t="s">
@@ -23156,7 +23150,7 @@
         <v>3</v>
       </c>
       <c r="H318">
-        <f>SUM(E318:G318)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I318" t="s">
@@ -23172,7 +23166,7 @@
         <v>2</v>
       </c>
       <c r="M318">
-        <f>SUM(J318:L318)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N318" t="s">
@@ -23202,7 +23196,7 @@
         <v>3</v>
       </c>
       <c r="H319">
-        <f>SUM(E319:G319)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I319" t="s">
@@ -23218,7 +23212,7 @@
         <v>3</v>
       </c>
       <c r="M319">
-        <f>SUM(J319:L319)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N319" t="s">
@@ -23248,7 +23242,7 @@
         <v>3</v>
       </c>
       <c r="H320">
-        <f>SUM(E320:G320)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I320" t="s">
@@ -23264,7 +23258,7 @@
         <v>2</v>
       </c>
       <c r="M320">
-        <f>SUM(J320:L320)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N320" t="s">
@@ -23294,7 +23288,7 @@
         <v>3</v>
       </c>
       <c r="H321">
-        <f>SUM(E321:G321)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I321" t="s">
@@ -23310,7 +23304,7 @@
         <v>3</v>
       </c>
       <c r="M321">
-        <f>SUM(J321:L321)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="N321" t="s">
@@ -23340,7 +23334,7 @@
         <v>3</v>
       </c>
       <c r="H322">
-        <f>SUM(E322:G322)</f>
+        <f t="shared" ref="H322:H385" si="10">SUM(E322:G322)</f>
         <v>7</v>
       </c>
       <c r="I322" t="s">
@@ -23356,7 +23350,7 @@
         <v>3</v>
       </c>
       <c r="M322">
-        <f>SUM(J322:L322)</f>
+        <f t="shared" ref="M322:M385" si="11">SUM(J322:L322)</f>
         <v>7</v>
       </c>
       <c r="N322" t="s">
@@ -23386,7 +23380,7 @@
         <v>3</v>
       </c>
       <c r="H323">
-        <f>SUM(E323:G323)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I323" t="s">
@@ -23402,7 +23396,7 @@
         <v>3</v>
       </c>
       <c r="M323">
-        <f>SUM(J323:L323)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="N323" t="s">
@@ -23432,7 +23426,7 @@
         <v>3</v>
       </c>
       <c r="H324">
-        <f>SUM(E324:G324)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I324" t="s">
@@ -23448,7 +23442,7 @@
         <v>3</v>
       </c>
       <c r="M324">
-        <f>SUM(J324:L324)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N324" t="s">
@@ -23478,7 +23472,7 @@
         <v>3</v>
       </c>
       <c r="H325">
-        <f>SUM(E325:G325)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I325" t="s">
@@ -23494,7 +23488,7 @@
         <v>3</v>
       </c>
       <c r="M325">
-        <f>SUM(J325:L325)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N325" t="s">
@@ -23524,7 +23518,7 @@
         <v>3</v>
       </c>
       <c r="H326">
-        <f>SUM(E326:G326)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I326" t="s">
@@ -23540,7 +23534,7 @@
         <v>2</v>
       </c>
       <c r="M326">
-        <f>SUM(J326:L326)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N326" t="s">
@@ -23570,7 +23564,7 @@
         <v>1</v>
       </c>
       <c r="H327">
-        <f>SUM(E327:G327)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I327" t="s">
@@ -23586,7 +23580,7 @@
         <v>2</v>
       </c>
       <c r="M327">
-        <f>SUM(J327:L327)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N327" t="s">
@@ -23616,7 +23610,7 @@
         <v>1</v>
       </c>
       <c r="H328">
-        <f>SUM(E328:G328)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I328" t="s">
@@ -23632,7 +23626,7 @@
         <v>2</v>
       </c>
       <c r="M328">
-        <f>SUM(J328:L328)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N328" t="s">
@@ -23662,7 +23656,7 @@
         <v>3</v>
       </c>
       <c r="H329">
-        <f>SUM(E329:G329)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I329" t="s">
@@ -23678,7 +23672,7 @@
         <v>2</v>
       </c>
       <c r="M329">
-        <f>SUM(J329:L329)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N329" t="s">
@@ -23708,7 +23702,7 @@
         <v>3</v>
       </c>
       <c r="H330">
-        <f>SUM(E330:G330)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I330" t="s">
@@ -23724,7 +23718,7 @@
         <v>2</v>
       </c>
       <c r="M330">
-        <f>SUM(J330:L330)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N330" t="s">
@@ -23754,7 +23748,7 @@
         <v>3</v>
       </c>
       <c r="H331">
-        <f>SUM(E331:G331)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I331" t="s">
@@ -23770,7 +23764,7 @@
         <v>3</v>
       </c>
       <c r="M331">
-        <f>SUM(J331:L331)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N331" t="s">
@@ -23800,7 +23794,7 @@
         <v>1</v>
       </c>
       <c r="H332">
-        <f>SUM(E332:G332)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I332" t="s">
@@ -23816,7 +23810,7 @@
         <v>3</v>
       </c>
       <c r="M332">
-        <f>SUM(J332:L332)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N332" t="s">
@@ -23846,7 +23840,7 @@
         <v>1</v>
       </c>
       <c r="H333">
-        <f>SUM(E333:G333)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I333" t="s">
@@ -23862,7 +23856,7 @@
         <v>2</v>
       </c>
       <c r="M333">
-        <f>SUM(J333:L333)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N333" t="s">
@@ -23892,7 +23886,7 @@
         <v>1</v>
       </c>
       <c r="H334">
-        <f>SUM(E334:G334)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I334" t="s">
@@ -23908,7 +23902,7 @@
         <v>3</v>
       </c>
       <c r="M334">
-        <f>SUM(J334:L334)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N334" t="s">
@@ -23938,7 +23932,7 @@
         <v>1</v>
       </c>
       <c r="H335">
-        <f>SUM(E335:G335)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I335" t="s">
@@ -23954,7 +23948,7 @@
         <v>2</v>
       </c>
       <c r="M335">
-        <f>SUM(J335:L335)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N335" t="s">
@@ -23984,7 +23978,7 @@
         <v>3</v>
       </c>
       <c r="H336">
-        <f>SUM(E336:G336)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I336" t="s">
@@ -24000,7 +23994,7 @@
         <v>3</v>
       </c>
       <c r="M336">
-        <f>SUM(J336:L336)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N336" t="s">
@@ -24030,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="H337">
-        <f>SUM(E337:G337)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I337" t="s">
@@ -24046,7 +24040,7 @@
         <v>3</v>
       </c>
       <c r="M337">
-        <f>SUM(J337:L337)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N337" t="s">
@@ -24076,7 +24070,7 @@
         <v>1</v>
       </c>
       <c r="H338">
-        <f>SUM(E338:G338)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I338" t="s">
@@ -24092,7 +24086,7 @@
         <v>3</v>
       </c>
       <c r="M338">
-        <f>SUM(J338:L338)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N338" t="s">
@@ -24122,7 +24116,7 @@
         <v>1</v>
       </c>
       <c r="H339">
-        <f>SUM(E339:G339)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I339" t="s">
@@ -24138,7 +24132,7 @@
         <v>3</v>
       </c>
       <c r="M339">
-        <f>SUM(J339:L339)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N339" t="s">
@@ -24168,7 +24162,7 @@
         <v>1</v>
       </c>
       <c r="H340">
-        <f>SUM(E340:G340)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I340" t="s">
@@ -24184,7 +24178,7 @@
         <v>3</v>
       </c>
       <c r="M340">
-        <f>SUM(J340:L340)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N340" t="s">
@@ -24214,7 +24208,7 @@
         <v>1</v>
       </c>
       <c r="H341">
-        <f>SUM(E341:G341)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I341" t="s">
@@ -24230,7 +24224,7 @@
         <v>3</v>
       </c>
       <c r="M341">
-        <f>SUM(J341:L341)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N341" t="s">
@@ -24260,7 +24254,7 @@
         <v>1</v>
       </c>
       <c r="H342">
-        <f>SUM(E342:G342)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I342" t="s">
@@ -24276,7 +24270,7 @@
         <v>3</v>
       </c>
       <c r="M342">
-        <f>SUM(J342:L342)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N342" t="s">
@@ -24306,7 +24300,7 @@
         <v>1</v>
       </c>
       <c r="H343">
-        <f>SUM(E343:G343)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I343" t="s">
@@ -24322,7 +24316,7 @@
         <v>3</v>
       </c>
       <c r="M343">
-        <f>SUM(J343:L343)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N343" t="s">
@@ -24352,7 +24346,7 @@
         <v>1</v>
       </c>
       <c r="H344">
-        <f>SUM(E344:G344)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I344" t="s">
@@ -24368,7 +24362,7 @@
         <v>3</v>
       </c>
       <c r="M344">
-        <f>SUM(J344:L344)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N344" t="s">
@@ -24398,7 +24392,7 @@
         <v>1</v>
       </c>
       <c r="H345">
-        <f>SUM(E345:G345)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I345" t="s">
@@ -24414,7 +24408,7 @@
         <v>3</v>
       </c>
       <c r="M345">
-        <f>SUM(J345:L345)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N345" t="s">
@@ -24444,7 +24438,7 @@
         <v>3</v>
       </c>
       <c r="H346">
-        <f>SUM(E346:G346)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I346" t="s">
@@ -24460,7 +24454,7 @@
         <v>3</v>
       </c>
       <c r="M346">
-        <f>SUM(J346:L346)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N346" t="s">
@@ -24490,7 +24484,7 @@
         <v>3</v>
       </c>
       <c r="H347">
-        <f>SUM(E347:G347)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I347" t="s">
@@ -24506,7 +24500,7 @@
         <v>2</v>
       </c>
       <c r="M347">
-        <f>SUM(J347:L347)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N347" t="s">
@@ -24536,7 +24530,7 @@
         <v>1</v>
       </c>
       <c r="H348">
-        <f>SUM(E348:G348)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I348" t="s">
@@ -24552,7 +24546,7 @@
         <v>3</v>
       </c>
       <c r="M348">
-        <f>SUM(J348:L348)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N348" t="s">
@@ -24582,7 +24576,7 @@
         <v>1</v>
       </c>
       <c r="H349">
-        <f>SUM(E349:G349)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I349" t="s">
@@ -24598,7 +24592,7 @@
         <v>3</v>
       </c>
       <c r="M349">
-        <f>SUM(J349:L349)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N349" t="s">
@@ -24628,7 +24622,7 @@
         <v>1</v>
       </c>
       <c r="H350">
-        <f>SUM(E350:G350)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I350" t="s">
@@ -24644,7 +24638,7 @@
         <v>3</v>
       </c>
       <c r="M350">
-        <f>SUM(J350:L350)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N350" t="s">
@@ -24674,7 +24668,7 @@
         <v>1</v>
       </c>
       <c r="H351">
-        <f>SUM(E351:G351)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I351" t="s">
@@ -24690,7 +24684,7 @@
         <v>1</v>
       </c>
       <c r="M351">
-        <f>SUM(J351:L351)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="N351" t="s">
@@ -24720,7 +24714,7 @@
         <v>3</v>
       </c>
       <c r="H352">
-        <f>SUM(E352:G352)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I352" t="s">
@@ -24736,7 +24730,7 @@
         <v>3</v>
       </c>
       <c r="M352">
-        <f>SUM(J352:L352)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N352" t="s">
@@ -24766,7 +24760,7 @@
         <v>3</v>
       </c>
       <c r="H353">
-        <f>SUM(E353:G353)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I353" t="s">
@@ -24782,7 +24776,7 @@
         <v>2</v>
       </c>
       <c r="M353">
-        <f>SUM(J353:L353)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N353" t="s">
@@ -24812,7 +24806,7 @@
         <v>3</v>
       </c>
       <c r="H354">
-        <f>SUM(E354:G354)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I354" t="s">
@@ -24828,7 +24822,7 @@
         <v>2</v>
       </c>
       <c r="M354">
-        <f>SUM(J354:L354)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N354" t="s">
@@ -24858,7 +24852,7 @@
         <v>3</v>
       </c>
       <c r="H355">
-        <f>SUM(E355:G355)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I355" t="s">
@@ -24874,7 +24868,7 @@
         <v>3</v>
       </c>
       <c r="M355">
-        <f>SUM(J355:L355)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N355" t="s">
@@ -24904,7 +24898,7 @@
         <v>3</v>
       </c>
       <c r="H356">
-        <f>SUM(E356:G356)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I356" t="s">
@@ -24920,7 +24914,7 @@
         <v>3</v>
       </c>
       <c r="M356">
-        <f>SUM(J356:L356)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N356" t="s">
@@ -24950,7 +24944,7 @@
         <v>3</v>
       </c>
       <c r="H357">
-        <f>SUM(E357:G357)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I357" t="s">
@@ -24966,7 +24960,7 @@
         <v>2</v>
       </c>
       <c r="M357">
-        <f>SUM(J357:L357)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N357" t="s">
@@ -24996,7 +24990,7 @@
         <v>3</v>
       </c>
       <c r="H358">
-        <f>SUM(E358:G358)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I358" t="s">
@@ -25012,7 +25006,7 @@
         <v>3</v>
       </c>
       <c r="M358">
-        <f>SUM(J358:L358)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N358" t="s">
@@ -25042,7 +25036,7 @@
         <v>3</v>
       </c>
       <c r="H359">
-        <f>SUM(E359:G359)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I359" t="s">
@@ -25058,7 +25052,7 @@
         <v>2</v>
       </c>
       <c r="M359">
-        <f>SUM(J359:L359)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N359" t="s">
@@ -25088,7 +25082,7 @@
         <v>3</v>
       </c>
       <c r="H360">
-        <f>SUM(E360:G360)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I360" t="s">
@@ -25104,7 +25098,7 @@
         <v>2</v>
       </c>
       <c r="M360">
-        <f>SUM(J360:L360)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="N360" t="s">
@@ -25134,7 +25128,7 @@
         <v>3</v>
       </c>
       <c r="H361">
-        <f>SUM(E361:G361)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I361" t="s">
@@ -25150,7 +25144,7 @@
         <v>3</v>
       </c>
       <c r="M361">
-        <f>SUM(J361:L361)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N361" t="s">
@@ -25180,7 +25174,7 @@
         <v>3</v>
       </c>
       <c r="H362">
-        <f>SUM(E362:G362)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I362" t="s">
@@ -25196,7 +25190,7 @@
         <v>3</v>
       </c>
       <c r="M362">
-        <f>SUM(J362:L362)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="N362" t="s">
@@ -25226,7 +25220,7 @@
         <v>3</v>
       </c>
       <c r="H363">
-        <f>SUM(E363:G363)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I363" t="s">
@@ -25242,7 +25236,7 @@
         <v>3</v>
       </c>
       <c r="M363">
-        <f>SUM(J363:L363)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N363" t="s">
@@ -25272,7 +25266,7 @@
         <v>3</v>
       </c>
       <c r="H364">
-        <f>SUM(E364:G364)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I364" t="s">
@@ -25288,7 +25282,7 @@
         <v>3</v>
       </c>
       <c r="M364">
-        <f>SUM(J364:L364)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N364" t="s">
@@ -25318,7 +25312,7 @@
         <v>1</v>
       </c>
       <c r="H365">
-        <f>SUM(E365:G365)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="I365" t="s">
@@ -25334,7 +25328,7 @@
         <v>2</v>
       </c>
       <c r="M365">
-        <f>SUM(J365:L365)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N365" t="s">
@@ -25364,7 +25358,7 @@
         <v>3</v>
       </c>
       <c r="H366">
-        <f>SUM(E366:G366)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I366" t="s">
@@ -25380,7 +25374,7 @@
         <v>3</v>
       </c>
       <c r="M366">
-        <f>SUM(J366:L366)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N366" t="s">
@@ -25410,7 +25404,7 @@
         <v>3</v>
       </c>
       <c r="H367">
-        <f>SUM(E367:G367)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I367" t="s">
@@ -25426,7 +25420,7 @@
         <v>3</v>
       </c>
       <c r="M367">
-        <f>SUM(J367:L367)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N367" t="s">
@@ -25456,7 +25450,7 @@
         <v>3</v>
       </c>
       <c r="H368">
-        <f>SUM(E368:G368)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I368" t="s">
@@ -25472,7 +25466,7 @@
         <v>3</v>
       </c>
       <c r="M368">
-        <f>SUM(J368:L368)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N368" t="s">
@@ -25502,7 +25496,7 @@
         <v>3</v>
       </c>
       <c r="H369">
-        <f>SUM(E369:G369)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I369" t="s">
@@ -25518,7 +25512,7 @@
         <v>3</v>
       </c>
       <c r="M369">
-        <f>SUM(J369:L369)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N369" t="s">
@@ -25548,7 +25542,7 @@
         <v>3</v>
       </c>
       <c r="H370">
-        <f>SUM(E370:G370)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I370" t="s">
@@ -25564,7 +25558,7 @@
         <v>2</v>
       </c>
       <c r="M370">
-        <f>SUM(J370:L370)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="N370" t="s">
@@ -25594,7 +25588,7 @@
         <v>3</v>
       </c>
       <c r="H371">
-        <f>SUM(E371:G371)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I371" t="s">
@@ -25610,7 +25604,7 @@
         <v>3</v>
       </c>
       <c r="M371">
-        <f>SUM(J371:L371)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N371" t="s">
@@ -25640,7 +25634,7 @@
         <v>3</v>
       </c>
       <c r="H372">
-        <f>SUM(E372:G372)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I372" t="s">
@@ -25656,7 +25650,7 @@
         <v>3</v>
       </c>
       <c r="M372">
-        <f>SUM(J372:L372)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="N372" t="s">
@@ -25686,7 +25680,7 @@
         <v>3</v>
       </c>
       <c r="H373">
-        <f>SUM(E373:G373)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I373" t="s">
@@ -25702,7 +25696,7 @@
         <v>3</v>
       </c>
       <c r="M373">
-        <f>SUM(J373:L373)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N373" t="s">
@@ -25732,7 +25726,7 @@
         <v>3</v>
       </c>
       <c r="H374">
-        <f>SUM(E374:G374)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I374" t="s">
@@ -25748,7 +25742,7 @@
         <v>3</v>
       </c>
       <c r="M374">
-        <f>SUM(J374:L374)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="N374" t="s">
@@ -25778,7 +25772,7 @@
         <v>3</v>
       </c>
       <c r="H375">
-        <f>SUM(E375:G375)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I375" t="s">
@@ -25794,7 +25788,7 @@
         <v>3</v>
       </c>
       <c r="M375">
-        <f>SUM(J375:L375)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N375" t="s">
@@ -25824,7 +25818,7 @@
         <v>3</v>
       </c>
       <c r="H376">
-        <f>SUM(E376:G376)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I376" t="s">
@@ -25840,7 +25834,7 @@
         <v>3</v>
       </c>
       <c r="M376">
-        <f>SUM(J376:L376)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="N376" t="s">
@@ -25870,7 +25864,7 @@
         <v>3</v>
       </c>
       <c r="H377">
-        <f>SUM(E377:G377)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="I377" t="s">
@@ -25886,7 +25880,7 @@
         <v>2</v>
       </c>
       <c r="M377">
-        <f>SUM(J377:L377)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N377" t="s">
@@ -25916,7 +25910,7 @@
         <v>1</v>
       </c>
       <c r="H378">
-        <f>SUM(E378:G378)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I378" t="s">
@@ -25932,7 +25926,7 @@
         <v>3</v>
       </c>
       <c r="M378">
-        <f>SUM(J378:L378)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N378" t="s">
@@ -25962,7 +25956,7 @@
         <v>1</v>
       </c>
       <c r="H379">
-        <f>SUM(E379:G379)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I379" t="s">
@@ -25978,7 +25972,7 @@
         <v>2</v>
       </c>
       <c r="M379">
-        <f>SUM(J379:L379)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N379" t="s">
@@ -26008,7 +26002,7 @@
         <v>1</v>
       </c>
       <c r="H380">
-        <f>SUM(E380:G380)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I380" t="s">
@@ -26024,7 +26018,7 @@
         <v>2</v>
       </c>
       <c r="M380">
-        <f>SUM(J380:L380)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N380" t="s">
@@ -26054,7 +26048,7 @@
         <v>1</v>
       </c>
       <c r="H381">
-        <f>SUM(E381:G381)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I381" t="s">
@@ -26070,7 +26064,7 @@
         <v>3</v>
       </c>
       <c r="M381">
-        <f>SUM(J381:L381)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N381" t="s">
@@ -26100,7 +26094,7 @@
         <v>1</v>
       </c>
       <c r="H382">
-        <f>SUM(E382:G382)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I382" t="s">
@@ -26116,7 +26110,7 @@
         <v>3</v>
       </c>
       <c r="M382">
-        <f>SUM(J382:L382)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N382" t="s">
@@ -26146,7 +26140,7 @@
         <v>1</v>
       </c>
       <c r="H383">
-        <f>SUM(E383:G383)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I383" t="s">
@@ -26162,7 +26156,7 @@
         <v>3</v>
       </c>
       <c r="M383">
-        <f>SUM(J383:L383)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N383" t="s">
@@ -26192,7 +26186,7 @@
         <v>1</v>
       </c>
       <c r="H384">
-        <f>SUM(E384:G384)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I384" t="s">
@@ -26208,7 +26202,7 @@
         <v>3</v>
       </c>
       <c r="M384">
-        <f>SUM(J384:L384)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N384" t="s">
@@ -26238,7 +26232,7 @@
         <v>1</v>
       </c>
       <c r="H385">
-        <f>SUM(E385:G385)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I385" t="s">
@@ -26254,7 +26248,7 @@
         <v>2</v>
       </c>
       <c r="M385">
-        <f>SUM(J385:L385)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="N385" t="s">
@@ -26284,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="H386">
-        <f>SUM(E386:G386)</f>
+        <f t="shared" ref="H386:H449" si="12">SUM(E386:G386)</f>
         <v>6</v>
       </c>
       <c r="I386" t="s">
@@ -26300,7 +26294,7 @@
         <v>3</v>
       </c>
       <c r="M386">
-        <f>SUM(J386:L386)</f>
+        <f t="shared" ref="M386:M449" si="13">SUM(J386:L386)</f>
         <v>8</v>
       </c>
       <c r="N386" t="s">
@@ -26330,7 +26324,7 @@
         <v>1</v>
       </c>
       <c r="H387">
-        <f>SUM(E387:G387)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I387" t="s">
@@ -26346,7 +26340,7 @@
         <v>3</v>
       </c>
       <c r="M387">
-        <f>SUM(J387:L387)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N387" t="s">
@@ -26376,7 +26370,7 @@
         <v>3</v>
       </c>
       <c r="H388">
-        <f>SUM(E388:G388)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="I388" t="s">
@@ -26392,7 +26386,7 @@
         <v>1</v>
       </c>
       <c r="M388">
-        <f>SUM(J388:L388)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="N388" t="s">
@@ -26422,7 +26416,7 @@
         <v>3</v>
       </c>
       <c r="H389">
-        <f>SUM(E389:G389)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I389" t="s">
@@ -26438,7 +26432,7 @@
         <v>3</v>
       </c>
       <c r="M389">
-        <f>SUM(J389:L389)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N389" t="s">
@@ -26468,7 +26462,7 @@
         <v>1</v>
       </c>
       <c r="H390">
-        <f>SUM(E390:G390)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I390" t="s">
@@ -26484,7 +26478,7 @@
         <v>3</v>
       </c>
       <c r="M390">
-        <f>SUM(J390:L390)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N390" t="s">
@@ -26514,7 +26508,7 @@
         <v>1</v>
       </c>
       <c r="H391">
-        <f>SUM(E391:G391)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I391" t="s">
@@ -26530,7 +26524,7 @@
         <v>3</v>
       </c>
       <c r="M391">
-        <f>SUM(J391:L391)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N391" t="s">
@@ -26560,7 +26554,7 @@
         <v>1</v>
       </c>
       <c r="H392">
-        <f>SUM(E392:G392)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I392" t="s">
@@ -26576,7 +26570,7 @@
         <v>3</v>
       </c>
       <c r="M392">
-        <f>SUM(J392:L392)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N392" t="s">
@@ -26606,7 +26600,7 @@
         <v>3</v>
       </c>
       <c r="H393">
-        <f>SUM(E393:G393)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I393" t="s">
@@ -26622,7 +26616,7 @@
         <v>3</v>
       </c>
       <c r="M393">
-        <f>SUM(J393:L393)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N393" t="s">
@@ -26652,7 +26646,7 @@
         <v>1</v>
       </c>
       <c r="H394">
-        <f>SUM(E394:G394)</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="I394" t="s">
@@ -26668,7 +26662,7 @@
         <v>3</v>
       </c>
       <c r="M394">
-        <f>SUM(J394:L394)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N394" t="s">
@@ -26698,7 +26692,7 @@
         <v>3</v>
       </c>
       <c r="H395">
-        <f>SUM(E395:G395)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I395" t="s">
@@ -26714,7 +26708,7 @@
         <v>3</v>
       </c>
       <c r="M395">
-        <f>SUM(J395:L395)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N395" t="s">
@@ -26744,7 +26738,7 @@
         <v>1</v>
       </c>
       <c r="H396">
-        <f>SUM(E396:G396)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I396" t="s">
@@ -26760,7 +26754,7 @@
         <v>3</v>
       </c>
       <c r="M396">
-        <f>SUM(J396:L396)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N396" t="s">
@@ -26790,7 +26784,7 @@
         <v>1</v>
       </c>
       <c r="H397">
-        <f>SUM(E397:G397)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I397" t="s">
@@ -26806,7 +26800,7 @@
         <v>3</v>
       </c>
       <c r="M397">
-        <f>SUM(J397:L397)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N397" t="s">
@@ -26836,7 +26830,7 @@
         <v>1</v>
       </c>
       <c r="H398">
-        <f>SUM(E398:G398)</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="I398" t="s">
@@ -26852,7 +26846,7 @@
         <v>3</v>
       </c>
       <c r="M398">
-        <f>SUM(J398:L398)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N398" t="s">
@@ -26882,7 +26876,7 @@
         <v>1</v>
       </c>
       <c r="H399">
-        <f>SUM(E399:G399)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I399" t="s">
@@ -26898,7 +26892,7 @@
         <v>3</v>
       </c>
       <c r="M399">
-        <f>SUM(J399:L399)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N399" t="s">
@@ -26928,7 +26922,7 @@
         <v>1</v>
       </c>
       <c r="H400">
-        <f>SUM(E400:G400)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I400" t="s">
@@ -26944,7 +26938,7 @@
         <v>3</v>
       </c>
       <c r="M400">
-        <f>SUM(J400:L400)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N400" t="s">
@@ -26974,7 +26968,7 @@
         <v>3</v>
       </c>
       <c r="H401">
-        <f>SUM(E401:G401)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I401" t="s">
@@ -26990,7 +26984,7 @@
         <v>3</v>
       </c>
       <c r="M401">
-        <f>SUM(J401:L401)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N401" t="s">
@@ -27020,7 +27014,7 @@
         <v>3</v>
       </c>
       <c r="H402">
-        <f>SUM(E402:G402)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I402" t="s">
@@ -27036,7 +27030,7 @@
         <v>3</v>
       </c>
       <c r="M402">
-        <f>SUM(J402:L402)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N402" t="s">
@@ -27066,7 +27060,7 @@
         <v>3</v>
       </c>
       <c r="H403">
-        <f>SUM(E403:G403)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I403" t="s">
@@ -27082,7 +27076,7 @@
         <v>2</v>
       </c>
       <c r="M403">
-        <f>SUM(J403:L403)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N403" t="s">
@@ -27112,7 +27106,7 @@
         <v>3</v>
       </c>
       <c r="H404">
-        <f>SUM(E404:G404)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="I404" t="s">
@@ -27128,7 +27122,7 @@
         <v>3</v>
       </c>
       <c r="M404">
-        <f>SUM(J404:L404)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N404" t="s">
@@ -27158,7 +27152,7 @@
         <v>3</v>
       </c>
       <c r="H405">
-        <f>SUM(E405:G405)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I405" t="s">
@@ -27174,7 +27168,7 @@
         <v>3</v>
       </c>
       <c r="M405">
-        <f>SUM(J405:L405)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="N405" t="s">
@@ -27204,7 +27198,7 @@
         <v>3</v>
       </c>
       <c r="H406">
-        <f>SUM(E406:G406)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I406" t="s">
@@ -27220,7 +27214,7 @@
         <v>3</v>
       </c>
       <c r="M406">
-        <f>SUM(J406:L406)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="N406" t="s">
@@ -27250,7 +27244,7 @@
         <v>3</v>
       </c>
       <c r="H407">
-        <f>SUM(E407:G407)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I407" t="s">
@@ -27266,7 +27260,7 @@
         <v>2</v>
       </c>
       <c r="M407">
-        <f>SUM(J407:L407)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N407" t="s">
@@ -27296,7 +27290,7 @@
         <v>3</v>
       </c>
       <c r="H408">
-        <f>SUM(E408:G408)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="I408" t="s">
@@ -27312,7 +27306,7 @@
         <v>3</v>
       </c>
       <c r="M408">
-        <f>SUM(J408:L408)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N408" t="s">
@@ -27342,7 +27336,7 @@
         <v>3</v>
       </c>
       <c r="H409">
-        <f>SUM(E409:G409)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="I409" t="s">
@@ -27358,7 +27352,7 @@
         <v>3</v>
       </c>
       <c r="M409">
-        <f>SUM(J409:L409)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N409" t="s">
@@ -27388,7 +27382,7 @@
         <v>3</v>
       </c>
       <c r="H410">
-        <f>SUM(E410:G410)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I410" t="s">
@@ -27404,7 +27398,7 @@
         <v>3</v>
       </c>
       <c r="M410">
-        <f>SUM(J410:L410)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N410" t="s">
@@ -27434,7 +27428,7 @@
         <v>3</v>
       </c>
       <c r="H411">
-        <f>SUM(E411:G411)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="I411" t="s">
@@ -27450,7 +27444,7 @@
         <v>3</v>
       </c>
       <c r="M411">
-        <f>SUM(J411:L411)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N411" t="s">
@@ -27480,7 +27474,7 @@
         <v>3</v>
       </c>
       <c r="H412">
-        <f>SUM(E412:G412)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I412" t="s">
@@ -27496,7 +27490,7 @@
         <v>3</v>
       </c>
       <c r="M412">
-        <f>SUM(J412:L412)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="N412" t="s">
@@ -27526,7 +27520,7 @@
         <v>3</v>
       </c>
       <c r="H413">
-        <f>SUM(E413:G413)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I413" t="s">
@@ -27542,7 +27536,7 @@
         <v>3</v>
       </c>
       <c r="M413">
-        <f>SUM(J413:L413)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N413" t="s">
@@ -27572,7 +27566,7 @@
         <v>3</v>
       </c>
       <c r="H414">
-        <f>SUM(E414:G414)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I414" t="s">
@@ -27588,7 +27582,7 @@
         <v>3</v>
       </c>
       <c r="M414">
-        <f>SUM(J414:L414)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="N414" t="s">
@@ -27618,7 +27612,7 @@
         <v>3</v>
       </c>
       <c r="H415">
-        <f>SUM(E415:G415)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I415" t="s">
@@ -27634,7 +27628,7 @@
         <v>3</v>
       </c>
       <c r="M415">
-        <f>SUM(J415:L415)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N415" t="s">
@@ -27664,7 +27658,7 @@
         <v>3</v>
       </c>
       <c r="H416">
-        <f>SUM(E416:G416)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I416" t="s">
@@ -27680,7 +27674,7 @@
         <v>3</v>
       </c>
       <c r="M416">
-        <f>SUM(J416:L416)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N416" t="s">
@@ -27710,7 +27704,7 @@
         <v>3</v>
       </c>
       <c r="H417">
-        <f>SUM(E417:G417)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I417" t="s">
@@ -27726,7 +27720,7 @@
         <v>2</v>
       </c>
       <c r="M417">
-        <f>SUM(J417:L417)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N417" t="s">
@@ -27756,7 +27750,7 @@
         <v>3</v>
       </c>
       <c r="H418">
-        <f>SUM(E418:G418)</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="I418" t="s">
@@ -27772,7 +27766,7 @@
         <v>3</v>
       </c>
       <c r="M418">
-        <f>SUM(J418:L418)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="N418" t="s">
@@ -27802,7 +27796,7 @@
         <v>3</v>
       </c>
       <c r="H419">
-        <f>SUM(E419:G419)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I419" t="s">
@@ -27818,7 +27812,7 @@
         <v>3</v>
       </c>
       <c r="M419">
-        <f>SUM(J419:L419)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N419" t="s">
@@ -27848,7 +27842,7 @@
         <v>3</v>
       </c>
       <c r="H420">
-        <f>SUM(E420:G420)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I420" t="s">
@@ -27864,7 +27858,7 @@
         <v>3</v>
       </c>
       <c r="M420">
-        <f>SUM(J420:L420)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N420" t="s">
@@ -27894,7 +27888,7 @@
         <v>3</v>
       </c>
       <c r="H421">
-        <f>SUM(E421:G421)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I421" t="s">
@@ -27910,7 +27904,7 @@
         <v>3</v>
       </c>
       <c r="M421">
-        <f>SUM(J421:L421)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N421" t="s">
@@ -27940,7 +27934,7 @@
         <v>3</v>
       </c>
       <c r="H422">
-        <f>SUM(E422:G422)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I422" t="s">
@@ -27956,7 +27950,7 @@
         <v>3</v>
       </c>
       <c r="M422">
-        <f>SUM(J422:L422)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="N422" t="s">
@@ -27986,7 +27980,7 @@
         <v>3</v>
       </c>
       <c r="H423">
-        <f>SUM(E423:G423)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="I423" t="s">
@@ -28002,7 +27996,7 @@
         <v>3</v>
       </c>
       <c r="M423">
-        <f>SUM(J423:L423)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N423" t="s">
@@ -28032,7 +28026,7 @@
         <v>3</v>
       </c>
       <c r="H424">
-        <f>SUM(E424:G424)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="I424" t="s">
@@ -28048,7 +28042,7 @@
         <v>3</v>
       </c>
       <c r="M424">
-        <f>SUM(J424:L424)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="N424" t="s">
@@ -28078,7 +28072,7 @@
         <v>3</v>
       </c>
       <c r="H425">
-        <f>SUM(E425:G425)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I425" t="s">
@@ -28094,7 +28088,7 @@
         <v>2</v>
       </c>
       <c r="M425">
-        <f>SUM(J425:L425)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N425" t="s">
@@ -28124,7 +28118,7 @@
         <v>2</v>
       </c>
       <c r="H426">
-        <f>SUM(E426:G426)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I426" t="s">
@@ -28140,7 +28134,7 @@
         <v>3</v>
       </c>
       <c r="M426">
-        <f>SUM(J426:L426)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="N426" t="s">
@@ -28170,7 +28164,7 @@
         <v>1</v>
       </c>
       <c r="H427">
-        <f>SUM(E427:G427)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I427" t="s">
@@ -28186,7 +28180,7 @@
         <v>2</v>
       </c>
       <c r="M427">
-        <f>SUM(J427:L427)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N427" t="s">
@@ -28216,7 +28210,7 @@
         <v>1</v>
       </c>
       <c r="H428">
-        <f>SUM(E428:G428)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I428" t="s">
@@ -28232,7 +28226,7 @@
         <v>2</v>
       </c>
       <c r="M428">
-        <f>SUM(J428:L428)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="N428" t="s">
@@ -28262,7 +28256,7 @@
         <v>1</v>
       </c>
       <c r="H429">
-        <f>SUM(E429:G429)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I429" t="s">
@@ -28278,7 +28272,7 @@
         <v>3</v>
       </c>
       <c r="M429">
-        <f>SUM(J429:L429)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N429" t="s">
@@ -28308,7 +28302,7 @@
         <v>1</v>
       </c>
       <c r="H430">
-        <f>SUM(E430:G430)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I430" t="s">
@@ -28324,7 +28318,7 @@
         <v>3</v>
       </c>
       <c r="M430">
-        <f>SUM(J430:L430)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N430" t="s">
@@ -28354,7 +28348,7 @@
         <v>3</v>
       </c>
       <c r="H431">
-        <f>SUM(E431:G431)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="I431" t="s">
@@ -28370,7 +28364,7 @@
         <v>3</v>
       </c>
       <c r="M431">
-        <f>SUM(J431:L431)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N431" t="s">
@@ -28400,7 +28394,7 @@
         <v>1</v>
       </c>
       <c r="H432">
-        <f>SUM(E432:G432)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I432" t="s">
@@ -28416,7 +28410,7 @@
         <v>3</v>
       </c>
       <c r="M432">
-        <f>SUM(J432:L432)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N432" t="s">
@@ -28446,7 +28440,7 @@
         <v>1</v>
       </c>
       <c r="H433">
-        <f>SUM(E433:G433)</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="I433" t="s">
@@ -28462,7 +28456,7 @@
         <v>3</v>
       </c>
       <c r="M433">
-        <f>SUM(J433:L433)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N433" t="s">
@@ -28492,7 +28486,7 @@
         <v>1</v>
       </c>
       <c r="H434">
-        <f>SUM(E434:G434)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I434" t="s">
@@ -28508,7 +28502,7 @@
         <v>3</v>
       </c>
       <c r="M434">
-        <f>SUM(J434:L434)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N434" t="s">
@@ -28538,7 +28532,7 @@
         <v>3</v>
       </c>
       <c r="H435">
-        <f>SUM(E435:G435)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I435" t="s">
@@ -28554,7 +28548,7 @@
         <v>2</v>
       </c>
       <c r="M435">
-        <f>SUM(J435:L435)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N435" t="s">
@@ -28584,7 +28578,7 @@
         <v>3</v>
       </c>
       <c r="H436">
-        <f>SUM(E436:G436)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I436" t="s">
@@ -28600,7 +28594,7 @@
         <v>3</v>
       </c>
       <c r="M436">
-        <f>SUM(J436:L436)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N436" t="s">
@@ -28630,7 +28624,7 @@
         <v>1</v>
       </c>
       <c r="H437">
-        <f>SUM(E437:G437)</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="I437" t="s">
@@ -28646,7 +28640,7 @@
         <v>3</v>
       </c>
       <c r="M437">
-        <f>SUM(J437:L437)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N437" t="s">
@@ -28676,7 +28670,7 @@
         <v>3</v>
       </c>
       <c r="H438">
-        <f>SUM(E438:G438)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I438" t="s">
@@ -28692,7 +28686,7 @@
         <v>3</v>
       </c>
       <c r="M438">
-        <f>SUM(J438:L438)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N438" t="s">
@@ -28722,7 +28716,7 @@
         <v>1</v>
       </c>
       <c r="H439">
-        <f>SUM(E439:G439)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I439" t="s">
@@ -28738,7 +28732,7 @@
         <v>3</v>
       </c>
       <c r="M439">
-        <f>SUM(J439:L439)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N439" t="s">
@@ -28768,7 +28762,7 @@
         <v>1</v>
       </c>
       <c r="H440">
-        <f>SUM(E440:G440)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I440" t="s">
@@ -28784,7 +28778,7 @@
         <v>3</v>
       </c>
       <c r="M440">
-        <f>SUM(J440:L440)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N440" t="s">
@@ -28814,7 +28808,7 @@
         <v>3</v>
       </c>
       <c r="H441">
-        <f>SUM(E441:G441)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I441" t="s">
@@ -28830,7 +28824,7 @@
         <v>3</v>
       </c>
       <c r="M441">
-        <f>SUM(J441:L441)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N441" t="s">
@@ -28860,7 +28854,7 @@
         <v>1</v>
       </c>
       <c r="H442">
-        <f>SUM(E442:G442)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I442" t="s">
@@ -28876,7 +28870,7 @@
         <v>3</v>
       </c>
       <c r="M442">
-        <f>SUM(J442:L442)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N442" t="s">
@@ -28906,7 +28900,7 @@
         <v>3</v>
       </c>
       <c r="H443">
-        <f>SUM(E443:G443)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="I443" t="s">
@@ -28922,7 +28916,7 @@
         <v>3</v>
       </c>
       <c r="M443">
-        <f>SUM(J443:L443)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N443" t="s">
@@ -28952,7 +28946,7 @@
         <v>3</v>
       </c>
       <c r="H444">
-        <f>SUM(E444:G444)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I444" t="s">
@@ -28968,7 +28962,7 @@
         <v>2</v>
       </c>
       <c r="M444">
-        <f>SUM(J444:L444)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N444" t="s">
@@ -28998,7 +28992,7 @@
         <v>1</v>
       </c>
       <c r="H445">
-        <f>SUM(E445:G445)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I445" t="s">
@@ -29014,7 +29008,7 @@
         <v>3</v>
       </c>
       <c r="M445">
-        <f>SUM(J445:L445)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N445" t="s">
@@ -29044,7 +29038,7 @@
         <v>3</v>
       </c>
       <c r="H446">
-        <f>SUM(E446:G446)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I446" t="s">
@@ -29060,7 +29054,7 @@
         <v>3</v>
       </c>
       <c r="M446">
-        <f>SUM(J446:L446)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N446" t="s">
@@ -29090,7 +29084,7 @@
         <v>1</v>
       </c>
       <c r="H447">
-        <f>SUM(E447:G447)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I447" t="s">
@@ -29106,7 +29100,7 @@
         <v>3</v>
       </c>
       <c r="M447">
-        <f>SUM(J447:L447)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N447" t="s">
@@ -29136,7 +29130,7 @@
         <v>3</v>
       </c>
       <c r="H448">
-        <f>SUM(E448:G448)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="I448" t="s">
@@ -29152,7 +29146,7 @@
         <v>3</v>
       </c>
       <c r="M448">
-        <f>SUM(J448:L448)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N448" t="s">
@@ -29182,7 +29176,7 @@
         <v>3</v>
       </c>
       <c r="H449">
-        <f>SUM(E449:G449)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I449" t="s">
@@ -29198,7 +29192,7 @@
         <v>3</v>
       </c>
       <c r="M449">
-        <f>SUM(J449:L449)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N449" t="s">
@@ -29228,7 +29222,7 @@
         <v>1</v>
       </c>
       <c r="H450">
-        <f>SUM(E450:G450)</f>
+        <f t="shared" ref="H450:H513" si="14">SUM(E450:G450)</f>
         <v>6</v>
       </c>
       <c r="I450" t="s">
@@ -29244,7 +29238,7 @@
         <v>3</v>
       </c>
       <c r="M450">
-        <f>SUM(J450:L450)</f>
+        <f t="shared" ref="M450:M513" si="15">SUM(J450:L450)</f>
         <v>8</v>
       </c>
       <c r="N450" t="s">
@@ -29274,7 +29268,7 @@
         <v>3</v>
       </c>
       <c r="H451">
-        <f>SUM(E451:G451)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="I451" t="s">
@@ -29290,7 +29284,7 @@
         <v>3</v>
       </c>
       <c r="M451">
-        <f>SUM(J451:L451)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N451" t="s">
@@ -29320,7 +29314,7 @@
         <v>3</v>
       </c>
       <c r="H452">
-        <f>SUM(E452:G452)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="I452" t="s">
@@ -29336,7 +29330,7 @@
         <v>3</v>
       </c>
       <c r="M452">
-        <f>SUM(J452:L452)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N452" t="s">
@@ -29366,7 +29360,7 @@
         <v>3</v>
       </c>
       <c r="H453">
-        <f>SUM(E453:G453)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I453" t="s">
@@ -29382,7 +29376,7 @@
         <v>2</v>
       </c>
       <c r="M453">
-        <f>SUM(J453:L453)</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="N453" t="s">
@@ -29412,7 +29406,7 @@
         <v>3</v>
       </c>
       <c r="H454">
-        <f>SUM(E454:G454)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I454" t="s">
@@ -29428,7 +29422,7 @@
         <v>2</v>
       </c>
       <c r="M454">
-        <f>SUM(J454:L454)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="N454" t="s">
@@ -29458,7 +29452,7 @@
         <v>3</v>
       </c>
       <c r="H455">
-        <f>SUM(E455:G455)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="I455" t="s">
@@ -29474,7 +29468,7 @@
         <v>1</v>
       </c>
       <c r="M455">
-        <f>SUM(J455:L455)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="N455" t="s">
@@ -29504,7 +29498,7 @@
         <v>3</v>
       </c>
       <c r="H456">
-        <f>SUM(E456:G456)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I456" t="s">
@@ -29520,7 +29514,7 @@
         <v>3</v>
       </c>
       <c r="M456">
-        <f>SUM(J456:L456)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N456" t="s">
@@ -29550,7 +29544,7 @@
         <v>3</v>
       </c>
       <c r="H457">
-        <f>SUM(E457:G457)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="I457" t="s">
@@ -29566,7 +29560,7 @@
         <v>3</v>
       </c>
       <c r="M457">
-        <f>SUM(J457:L457)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N457" t="s">
@@ -29596,7 +29590,7 @@
         <v>2</v>
       </c>
       <c r="H458">
-        <f>SUM(E458:G458)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I458" t="s">
@@ -29612,7 +29606,7 @@
         <v>3</v>
       </c>
       <c r="M458">
-        <f>SUM(J458:L458)</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="N458" t="s">
@@ -29642,7 +29636,7 @@
         <v>3</v>
       </c>
       <c r="H459">
-        <f>SUM(E459:G459)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="I459" t="s">
@@ -29658,7 +29652,7 @@
         <v>1</v>
       </c>
       <c r="M459">
-        <f>SUM(J459:L459)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="N459" t="s">
@@ -29688,7 +29682,7 @@
         <v>3</v>
       </c>
       <c r="H460">
-        <f>SUM(E460:G460)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I460" t="s">
@@ -29704,7 +29698,7 @@
         <v>3</v>
       </c>
       <c r="M460">
-        <f>SUM(J460:L460)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N460" t="s">
@@ -29734,7 +29728,7 @@
         <v>3</v>
       </c>
       <c r="H461">
-        <f>SUM(E461:G461)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I461" t="s">
@@ -29750,7 +29744,7 @@
         <v>3</v>
       </c>
       <c r="M461">
-        <f>SUM(J461:L461)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N461" t="s">
@@ -29780,7 +29774,7 @@
         <v>3</v>
       </c>
       <c r="H462">
-        <f>SUM(E462:G462)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I462" t="s">
@@ -29796,7 +29790,7 @@
         <v>3</v>
       </c>
       <c r="M462">
-        <f>SUM(J462:L462)</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="N462" t="s">
@@ -29826,7 +29820,7 @@
         <v>3</v>
       </c>
       <c r="H463">
-        <f>SUM(E463:G463)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I463" t="s">
@@ -29842,7 +29836,7 @@
         <v>3</v>
       </c>
       <c r="M463">
-        <f>SUM(J463:L463)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N463" t="s">
@@ -29872,7 +29866,7 @@
         <v>3</v>
       </c>
       <c r="H464">
-        <f>SUM(E464:G464)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="I464" t="s">
@@ -29888,7 +29882,7 @@
         <v>3</v>
       </c>
       <c r="M464">
-        <f>SUM(J464:L464)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N464" t="s">
@@ -29918,7 +29912,7 @@
         <v>3</v>
       </c>
       <c r="H465">
-        <f>SUM(E465:G465)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I465" t="s">
@@ -29934,7 +29928,7 @@
         <v>3</v>
       </c>
       <c r="M465">
-        <f>SUM(J465:L465)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N465" t="s">
@@ -29964,7 +29958,7 @@
         <v>3</v>
       </c>
       <c r="H466">
-        <f>SUM(E466:G466)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I466" t="s">
@@ -29980,7 +29974,7 @@
         <v>3</v>
       </c>
       <c r="M466">
-        <f>SUM(J466:L466)</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="N466" t="s">
@@ -30010,7 +30004,7 @@
         <v>3</v>
       </c>
       <c r="H467">
-        <f>SUM(E467:G467)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I467" t="s">
@@ -30026,7 +30020,7 @@
         <v>3</v>
       </c>
       <c r="M467">
-        <f>SUM(J467:L467)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N467" t="s">
@@ -30056,7 +30050,7 @@
         <v>3</v>
       </c>
       <c r="H468">
-        <f>SUM(E468:G468)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I468" t="s">
@@ -30072,7 +30066,7 @@
         <v>1</v>
       </c>
       <c r="M468">
-        <f>SUM(J468:L468)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="N468" t="s">
@@ -30102,7 +30096,7 @@
         <v>3</v>
       </c>
       <c r="H469">
-        <f>SUM(E469:G469)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="I469" t="s">
@@ -30118,7 +30112,7 @@
         <v>3</v>
       </c>
       <c r="M469">
-        <f>SUM(J469:L469)</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="N469" t="s">
@@ -30148,7 +30142,7 @@
         <v>3</v>
       </c>
       <c r="H470">
-        <f>SUM(E470:G470)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I470" t="s">
@@ -30164,7 +30158,7 @@
         <v>3</v>
       </c>
       <c r="M470">
-        <f>SUM(J470:L470)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N470" t="s">
@@ -30194,7 +30188,7 @@
         <v>3</v>
       </c>
       <c r="H471">
-        <f>SUM(E471:G471)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I471" t="s">
@@ -30210,7 +30204,7 @@
         <v>3</v>
       </c>
       <c r="M471">
-        <f>SUM(J471:L471)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N471" t="s">
@@ -30240,7 +30234,7 @@
         <v>3</v>
       </c>
       <c r="H472">
-        <f>SUM(E472:G472)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I472" t="s">
@@ -30256,7 +30250,7 @@
         <v>2</v>
       </c>
       <c r="M472">
-        <f>SUM(J472:L472)</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="N472" t="s">
@@ -30286,7 +30280,7 @@
         <v>3</v>
       </c>
       <c r="H473">
-        <f>SUM(E473:G473)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I473" t="s">
@@ -30302,7 +30296,7 @@
         <v>3</v>
       </c>
       <c r="M473">
-        <f>SUM(J473:L473)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N473" t="s">
@@ -30332,7 +30326,7 @@
         <v>3</v>
       </c>
       <c r="H474">
-        <f>SUM(E474:G474)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I474" t="s">
@@ -30348,7 +30342,7 @@
         <v>3</v>
       </c>
       <c r="M474">
-        <f>SUM(J474:L474)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N474" t="s">
@@ -30378,7 +30372,7 @@
         <v>3</v>
       </c>
       <c r="H475">
-        <f>SUM(E475:G475)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I475" t="s">
@@ -30394,7 +30388,7 @@
         <v>3</v>
       </c>
       <c r="M475">
-        <f>SUM(J475:L475)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N475" t="s">
@@ -30424,7 +30418,7 @@
         <v>3</v>
       </c>
       <c r="H476">
-        <f>SUM(E476:G476)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I476" t="s">
@@ -30440,7 +30434,7 @@
         <v>3</v>
       </c>
       <c r="M476">
-        <f>SUM(J476:L476)</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="N476" t="s">
@@ -30470,7 +30464,7 @@
         <v>1</v>
       </c>
       <c r="H477">
-        <f>SUM(E477:G477)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I477" t="s">
@@ -30486,7 +30480,7 @@
         <v>2</v>
       </c>
       <c r="M477">
-        <f>SUM(J477:L477)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="N477" t="s">
@@ -30516,7 +30510,7 @@
         <v>1</v>
       </c>
       <c r="H478">
-        <f>SUM(E478:G478)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I478" t="s">
@@ -30532,7 +30526,7 @@
         <v>3</v>
       </c>
       <c r="M478">
-        <f>SUM(J478:L478)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N478" t="s">
@@ -30562,7 +30556,7 @@
         <v>1</v>
       </c>
       <c r="H479">
-        <f>SUM(E479:G479)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I479" t="s">
@@ -30578,7 +30572,7 @@
         <v>3</v>
       </c>
       <c r="M479">
-        <f>SUM(J479:L479)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N479" t="s">
@@ -30608,7 +30602,7 @@
         <v>1</v>
       </c>
       <c r="H480">
-        <f>SUM(E480:G480)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I480" t="s">
@@ -30624,7 +30618,7 @@
         <v>2</v>
       </c>
       <c r="M480">
-        <f>SUM(J480:L480)</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="N480" t="s">
@@ -30654,7 +30648,7 @@
         <v>3</v>
       </c>
       <c r="H481">
-        <f>SUM(E481:G481)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="I481" t="s">
@@ -30670,7 +30664,7 @@
         <v>3</v>
       </c>
       <c r="M481">
-        <f>SUM(J481:L481)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N481" t="s">
@@ -30700,7 +30694,7 @@
         <v>1</v>
       </c>
       <c r="H482">
-        <f>SUM(E482:G482)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I482" t="s">
@@ -30716,7 +30710,7 @@
         <v>3</v>
       </c>
       <c r="M482">
-        <f>SUM(J482:L482)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N482" t="s">
@@ -30746,7 +30740,7 @@
         <v>3</v>
       </c>
       <c r="H483">
-        <f>SUM(E483:G483)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I483" t="s">
@@ -30762,7 +30756,7 @@
         <v>2</v>
       </c>
       <c r="M483">
-        <f>SUM(J483:L483)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="N483" t="s">
@@ -30792,7 +30786,7 @@
         <v>1</v>
       </c>
       <c r="H484">
-        <f>SUM(E484:G484)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I484" t="s">
@@ -30808,7 +30802,7 @@
         <v>3</v>
       </c>
       <c r="M484">
-        <f>SUM(J484:L484)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N484" t="s">
@@ -30838,7 +30832,7 @@
         <v>1</v>
       </c>
       <c r="H485">
-        <f>SUM(E485:G485)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I485" t="s">
@@ -30854,7 +30848,7 @@
         <v>2</v>
       </c>
       <c r="M485">
-        <f>SUM(J485:L485)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="N485" t="s">
@@ -30884,7 +30878,7 @@
         <v>3</v>
       </c>
       <c r="H486">
-        <f>SUM(E486:G486)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I486" t="s">
@@ -30900,7 +30894,7 @@
         <v>3</v>
       </c>
       <c r="M486">
-        <f>SUM(J486:L486)</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="N486" t="s">
@@ -30930,7 +30924,7 @@
         <v>1</v>
       </c>
       <c r="H487">
-        <f>SUM(E487:G487)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I487" t="s">
@@ -30946,7 +30940,7 @@
         <v>3</v>
       </c>
       <c r="M487">
-        <f>SUM(J487:L487)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N487" t="s">
@@ -30976,7 +30970,7 @@
         <v>1</v>
       </c>
       <c r="H488">
-        <f>SUM(E488:G488)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I488" t="s">
@@ -30992,7 +30986,7 @@
         <v>3</v>
       </c>
       <c r="M488">
-        <f>SUM(J488:L488)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N488" t="s">
@@ -31022,7 +31016,7 @@
         <v>1</v>
       </c>
       <c r="H489">
-        <f>SUM(E489:G489)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I489" t="s">
@@ -31038,7 +31032,7 @@
         <v>3</v>
       </c>
       <c r="M489">
-        <f>SUM(J489:L489)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N489" t="s">
@@ -31068,7 +31062,7 @@
         <v>1</v>
       </c>
       <c r="H490">
-        <f>SUM(E490:G490)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="I490" t="s">
@@ -31084,7 +31078,7 @@
         <v>3</v>
       </c>
       <c r="M490">
-        <f>SUM(J490:L490)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N490" t="s">
@@ -31114,7 +31108,7 @@
         <v>3</v>
       </c>
       <c r="H491">
-        <f>SUM(E491:G491)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I491" t="s">
@@ -31130,7 +31124,7 @@
         <v>3</v>
       </c>
       <c r="M491">
-        <f>SUM(J491:L491)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N491" t="s">
@@ -31160,7 +31154,7 @@
         <v>1</v>
       </c>
       <c r="H492">
-        <f>SUM(E492:G492)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I492" t="s">
@@ -31176,7 +31170,7 @@
         <v>3</v>
       </c>
       <c r="M492">
-        <f>SUM(J492:L492)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N492" t="s">
@@ -31206,7 +31200,7 @@
         <v>3</v>
       </c>
       <c r="H493">
-        <f>SUM(E493:G493)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I493" t="s">
@@ -31222,7 +31216,7 @@
         <v>3</v>
       </c>
       <c r="M493">
-        <f>SUM(J493:L493)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N493" t="s">
@@ -31252,7 +31246,7 @@
         <v>3</v>
       </c>
       <c r="H494">
-        <f>SUM(E494:G494)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I494" t="s">
@@ -31268,7 +31262,7 @@
         <v>3</v>
       </c>
       <c r="M494">
-        <f>SUM(J494:L494)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N494" t="s">
@@ -31298,7 +31292,7 @@
         <v>1</v>
       </c>
       <c r="H495">
-        <f>SUM(E495:G495)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I495" t="s">
@@ -31314,7 +31308,7 @@
         <v>3</v>
       </c>
       <c r="M495">
-        <f>SUM(J495:L495)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N495" t="s">
@@ -31344,7 +31338,7 @@
         <v>1</v>
       </c>
       <c r="H496">
-        <f>SUM(E496:G496)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I496" t="s">
@@ -31360,7 +31354,7 @@
         <v>3</v>
       </c>
       <c r="M496">
-        <f>SUM(J496:L496)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N496" t="s">
@@ -31390,7 +31384,7 @@
         <v>1</v>
       </c>
       <c r="H497">
-        <f>SUM(E497:G497)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I497" t="s">
@@ -31406,7 +31400,7 @@
         <v>3</v>
       </c>
       <c r="M497">
-        <f>SUM(J497:L497)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N497" t="s">
@@ -31436,7 +31430,7 @@
         <v>1</v>
       </c>
       <c r="H498">
-        <f>SUM(E498:G498)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I498" t="s">
@@ -31452,7 +31446,7 @@
         <v>3</v>
       </c>
       <c r="M498">
-        <f>SUM(J498:L498)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N498" t="s">
@@ -31482,7 +31476,7 @@
         <v>1</v>
       </c>
       <c r="H499">
-        <f>SUM(E499:G499)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I499" t="s">
@@ -31498,7 +31492,7 @@
         <v>3</v>
       </c>
       <c r="M499">
-        <f>SUM(J499:L499)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N499" t="s">
@@ -31528,7 +31522,7 @@
         <v>1</v>
       </c>
       <c r="H500">
-        <f>SUM(E500:G500)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I500" t="s">
@@ -31544,7 +31538,7 @@
         <v>3</v>
       </c>
       <c r="M500">
-        <f>SUM(J500:L500)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N500" t="s">
@@ -31574,7 +31568,7 @@
         <v>3</v>
       </c>
       <c r="H501">
-        <f>SUM(E501:G501)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I501" t="s">
@@ -31590,7 +31584,7 @@
         <v>3</v>
       </c>
       <c r="M501">
-        <f>SUM(J501:L501)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="N501" t="s">
@@ -31604,10 +31598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221B1892-87A0-494F-BDB9-8EA9F3D3DABD}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31761,7 +31755,7 @@
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B5" s="3">
         <f>STDEV(('Raw Data'!E2:E501))</f>
@@ -31794,16 +31788,6 @@
       <c r="I5" s="3">
         <f>STDEV(('Raw Data'!M2:M501))</f>
         <v>1.3302402332497363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>1019</v>
       </c>
     </row>
   </sheetData>
